--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1000000/Output_22_14.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1000000/Output_22_14.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-781080.3704372894</v>
+        <v>-783561.290262747</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>10721426.73834738</v>
+        <v>10721426.73834739</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673432</v>
+        <v>603248.4937673435</v>
       </c>
     </row>
     <row r="9">
@@ -1367,25 +1367,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>355.8136950763542</v>
+        <v>355.8136950763541</v>
       </c>
       <c r="C11" t="n">
-        <v>338.3527451838812</v>
+        <v>338.3527451838811</v>
       </c>
       <c r="D11" t="n">
-        <v>327.7628950335566</v>
+        <v>327.7628950335565</v>
       </c>
       <c r="E11" t="n">
-        <v>355.0102234851354</v>
+        <v>355.0102234851353</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>379.955899154585</v>
       </c>
       <c r="G11" t="n">
-        <v>384.0015790663271</v>
+        <v>384.001579066327</v>
       </c>
       <c r="H11" t="n">
-        <v>267.6876178001941</v>
+        <v>62.47756120648237</v>
       </c>
       <c r="I11" t="n">
         <v>14.65678318579953</v>
@@ -1421,22 +1421,22 @@
         <v>82.26761520104941</v>
       </c>
       <c r="T11" t="n">
-        <v>176.9978235524937</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>224.0750253717756</v>
+        <v>224.0750253717755</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>322.3208221302866</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
         <v>342.8109540913426</v>
       </c>
       <c r="Y11" t="n">
-        <v>34.74498894702253</v>
+        <v>359.3177920689271</v>
       </c>
     </row>
     <row r="12">
@@ -1464,10 +1464,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H12" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I12" t="n">
-        <v>18.8172186824774</v>
+        <v>18.81721868247746</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1494,10 +1494,10 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0.1429098734107401</v>
+        <v>0.1429098734084892</v>
       </c>
       <c r="S12" t="n">
-        <v>128.1435076414546</v>
+        <v>128.1435076414547</v>
       </c>
       <c r="T12" t="n">
         <v>190.7165703189231</v>
@@ -1525,28 +1525,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>152.9118335948109</v>
+        <v>152.9118335948108</v>
       </c>
       <c r="C13" t="n">
-        <v>80.06126007468674</v>
+        <v>140.3266745115014</v>
       </c>
       <c r="D13" t="n">
-        <v>121.695326431086</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>119.5138160594427</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>139.1056616719018</v>
+        <v>139.1056616719017</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>117.8348683271943</v>
       </c>
       <c r="I13" t="n">
-        <v>69.43227382271169</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,28 +1573,28 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>62.01200608292089</v>
       </c>
       <c r="S13" t="n">
-        <v>162.8488787443155</v>
+        <v>162.8488787443154</v>
       </c>
       <c r="T13" t="n">
-        <v>192.6288026890428</v>
+        <v>192.6288026890427</v>
       </c>
       <c r="U13" t="n">
-        <v>259.2916916184865</v>
+        <v>259.2916916184864</v>
       </c>
       <c r="V13" t="n">
-        <v>225.2174967367016</v>
+        <v>225.2174967367015</v>
       </c>
       <c r="W13" t="n">
-        <v>259.6028517494646</v>
+        <v>259.6028517494645</v>
       </c>
       <c r="X13" t="n">
-        <v>198.7895088019108</v>
+        <v>30.29100414933593</v>
       </c>
       <c r="Y13" t="n">
-        <v>191.6645067649684</v>
+        <v>191.6645067649683</v>
       </c>
     </row>
     <row r="14">
@@ -1604,28 +1604,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>355.8136950763542</v>
+        <v>355.8136950763541</v>
       </c>
       <c r="C14" t="n">
-        <v>338.3527451838812</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>327.7628950335566</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>355.0102234851354</v>
+        <v>15.76504954307296</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>379.955899154585</v>
       </c>
       <c r="G14" t="n">
-        <v>384.0015790663271</v>
+        <v>384.001579066327</v>
       </c>
       <c r="H14" t="n">
-        <v>267.6876178001941</v>
+        <v>267.687617800194</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>14.65678318579953</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1655,25 +1655,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>82.26761520104941</v>
+        <v>82.2676152010494</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>176.9978235524937</v>
       </c>
       <c r="U14" t="n">
-        <v>224.0750253717756</v>
+        <v>224.0750253717755</v>
       </c>
       <c r="V14" t="n">
         <v>300.8321118830085</v>
       </c>
       <c r="W14" t="n">
-        <v>247.8883059325927</v>
+        <v>322.3208221302866</v>
       </c>
       <c r="X14" t="n">
         <v>342.8109540913426</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>359.3177920689271</v>
       </c>
     </row>
     <row r="15">
@@ -1701,10 +1701,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H15" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I15" t="n">
-        <v>18.8172186824774</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1731,10 +1731,10 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0.1429098734107401</v>
+        <v>0.1429098734089393</v>
       </c>
       <c r="S15" t="n">
-        <v>128.1435076414546</v>
+        <v>128.1435076414547</v>
       </c>
       <c r="T15" t="n">
         <v>190.7165703189231</v>
@@ -1762,16 +1762,16 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>47.43824964879465</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
         <v>140.3266745115014</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>21.69765042042064</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>119.5138160594427</v>
       </c>
       <c r="F16" t="n">
         <v>118.5009014358048</v>
@@ -1780,10 +1780,10 @@
         <v>139.1056616719018</v>
       </c>
       <c r="H16" t="n">
-        <v>117.8348683271944</v>
+        <v>117.8348683271943</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>69.43227382271166</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,28 +1810,28 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>62.01200608292089</v>
       </c>
       <c r="S16" t="n">
-        <v>162.8488787443155</v>
+        <v>162.8488787443154</v>
       </c>
       <c r="T16" t="n">
-        <v>192.6288026890428</v>
+        <v>192.6288026890427</v>
       </c>
       <c r="U16" t="n">
-        <v>259.2916916184865</v>
+        <v>259.2916916184864</v>
       </c>
       <c r="V16" t="n">
-        <v>225.2174967367016</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>259.6028517494646</v>
+        <v>259.6028517494645</v>
       </c>
       <c r="X16" t="n">
-        <v>198.7895088019108</v>
+        <v>198.7895088019107</v>
       </c>
       <c r="Y16" t="n">
-        <v>191.6645067649684</v>
+        <v>191.6645067649683</v>
       </c>
     </row>
     <row r="17">
@@ -1859,7 +1859,7 @@
         <v>337.0264424477344</v>
       </c>
       <c r="H17" t="n">
-        <v>52.97552838455628</v>
+        <v>220.7124811816014</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1892,16 +1892,16 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>35.29247858245679</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>130.0226869339011</v>
       </c>
       <c r="U17" t="n">
         <v>177.099888753183</v>
       </c>
       <c r="V17" t="n">
-        <v>253.8569752644159</v>
+        <v>233.1475124013483</v>
       </c>
       <c r="W17" t="n">
         <v>275.345685511694</v>
@@ -1910,7 +1910,7 @@
         <v>295.83581747275</v>
       </c>
       <c r="Y17" t="n">
-        <v>312.3426554503346</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -2002,7 +2002,7 @@
         <v>105.9366969762183</v>
       </c>
       <c r="C19" t="n">
-        <v>93.35153789290881</v>
+        <v>155.751232087872</v>
       </c>
       <c r="D19" t="n">
         <v>74.72018981249333</v>
@@ -2062,7 +2062,7 @@
         <v>178.242360118109</v>
       </c>
       <c r="W19" t="n">
-        <v>275.0274093258353</v>
+        <v>212.627715130872</v>
       </c>
       <c r="X19" t="n">
         <v>151.8143721833181</v>
@@ -2090,13 +2090,13 @@
         <v>308.0350868665428</v>
       </c>
       <c r="F20" t="n">
-        <v>332.9807625359924</v>
+        <v>220.6411254041914</v>
       </c>
       <c r="G20" t="n">
-        <v>279.3200096460264</v>
+        <v>337.0264424477344</v>
       </c>
       <c r="H20" t="n">
-        <v>220.7124811816014</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2129,7 +2129,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>35.29247858245681</v>
+        <v>35.29247858245679</v>
       </c>
       <c r="T20" t="n">
         <v>130.0226869339011</v>
@@ -2141,7 +2141,7 @@
         <v>253.8569752644159</v>
       </c>
       <c r="W20" t="n">
-        <v>0</v>
+        <v>275.345685511694</v>
       </c>
       <c r="X20" t="n">
         <v>295.83581747275</v>
@@ -2290,13 +2290,13 @@
         <v>115.8737421257229</v>
       </c>
       <c r="T22" t="n">
-        <v>208.0533602654133</v>
+        <v>145.6536660704502</v>
       </c>
       <c r="U22" t="n">
         <v>212.3165549998938</v>
       </c>
       <c r="V22" t="n">
-        <v>178.242360118109</v>
+        <v>240.642054313072</v>
       </c>
       <c r="W22" t="n">
         <v>212.627715130872</v>
@@ -2366,10 +2366,10 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>35.29247858245681</v>
+        <v>35.29247858245679</v>
       </c>
       <c r="T23" t="n">
-        <v>130.0226869339012</v>
+        <v>130.0226869339011</v>
       </c>
       <c r="U23" t="n">
         <v>177.0998887531829</v>
@@ -2412,10 +2412,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H24" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I24" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2442,7 +2442,7 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>0.1429098734089393</v>
+        <v>0.1429098734102899</v>
       </c>
       <c r="S24" t="n">
         <v>128.1435076414547</v>
@@ -2494,7 +2494,7 @@
         <v>70.85973170860176</v>
       </c>
       <c r="I25" t="n">
-        <v>22.45713720411909</v>
+        <v>22.45713720411907</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,10 +2521,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>15.03686946432832</v>
+        <v>77.43656365929147</v>
       </c>
       <c r="S25" t="n">
-        <v>178.2734363206857</v>
+        <v>115.8737421257229</v>
       </c>
       <c r="T25" t="n">
         <v>145.6536660704502</v>
@@ -2555,22 +2555,22 @@
         <v>335.758705044888</v>
       </c>
       <c r="C26" t="n">
-        <v>318.2977551524149</v>
+        <v>318.297755152415</v>
       </c>
       <c r="D26" t="n">
-        <v>307.7079050020903</v>
+        <v>307.7079050020904</v>
       </c>
       <c r="E26" t="n">
         <v>334.9552334536692</v>
       </c>
       <c r="F26" t="n">
-        <v>359.9009091231188</v>
+        <v>359.9009091231189</v>
       </c>
       <c r="G26" t="n">
-        <v>363.9465890348608</v>
+        <v>363.9465890348609</v>
       </c>
       <c r="H26" t="n">
-        <v>247.6326277687278</v>
+        <v>247.6326277687279</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2603,7 +2603,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>62.21262516958323</v>
+        <v>62.21262516958328</v>
       </c>
       <c r="T26" t="n">
         <v>156.9428335210276</v>
@@ -2615,10 +2615,10 @@
         <v>280.7771218515423</v>
       </c>
       <c r="W26" t="n">
-        <v>302.2658320988204</v>
+        <v>302.2658320988205</v>
       </c>
       <c r="X26" t="n">
-        <v>322.7559640598764</v>
+        <v>322.7559640598765</v>
       </c>
       <c r="Y26" t="n">
         <v>339.262802037461</v>
@@ -2649,10 +2649,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H27" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I27" t="n">
-        <v>18.81721868247661</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2679,7 +2679,7 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S27" t="n">
         <v>128.1435076414547</v>
@@ -2713,25 +2713,25 @@
         <v>132.8568435633447</v>
       </c>
       <c r="C28" t="n">
-        <v>120.2716844800352</v>
+        <v>120.2716844800353</v>
       </c>
       <c r="D28" t="n">
-        <v>101.6403363996197</v>
+        <v>101.6403363996198</v>
       </c>
       <c r="E28" t="n">
-        <v>99.45882602797656</v>
+        <v>99.45882602797661</v>
       </c>
       <c r="F28" t="n">
-        <v>98.44591140433863</v>
+        <v>98.44591140433869</v>
       </c>
       <c r="G28" t="n">
-        <v>119.0506716404356</v>
+        <v>119.0506716404357</v>
       </c>
       <c r="H28" t="n">
-        <v>97.77987829572817</v>
+        <v>97.77987829572822</v>
       </c>
       <c r="I28" t="n">
-        <v>49.3772837912455</v>
+        <v>49.37728379124554</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,7 +2758,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>41.95701605145473</v>
+        <v>41.95701605145477</v>
       </c>
       <c r="S28" t="n">
         <v>142.7938887128493</v>
@@ -2767,7 +2767,7 @@
         <v>172.5738126575766</v>
       </c>
       <c r="U28" t="n">
-        <v>239.2367015870202</v>
+        <v>239.2367015870203</v>
       </c>
       <c r="V28" t="n">
         <v>205.1625067052354</v>
@@ -2776,7 +2776,7 @@
         <v>239.5478617179984</v>
       </c>
       <c r="X28" t="n">
-        <v>178.7345187704445</v>
+        <v>178.7345187704446</v>
       </c>
       <c r="Y28" t="n">
         <v>171.6095167335022</v>
@@ -2792,22 +2792,22 @@
         <v>335.758705044888</v>
       </c>
       <c r="C29" t="n">
-        <v>318.2977551524149</v>
+        <v>318.297755152415</v>
       </c>
       <c r="D29" t="n">
-        <v>307.7079050020903</v>
+        <v>307.7079050020904</v>
       </c>
       <c r="E29" t="n">
         <v>334.9552334536692</v>
       </c>
       <c r="F29" t="n">
-        <v>359.9009091231188</v>
+        <v>359.9009091231189</v>
       </c>
       <c r="G29" t="n">
-        <v>363.9465890348608</v>
+        <v>363.9465890348609</v>
       </c>
       <c r="H29" t="n">
-        <v>247.6326277687278</v>
+        <v>247.6326277687279</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -2840,7 +2840,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>62.21262516958323</v>
+        <v>62.21262516958328</v>
       </c>
       <c r="T29" t="n">
         <v>156.9428335210276</v>
@@ -2852,10 +2852,10 @@
         <v>280.7771218515423</v>
       </c>
       <c r="W29" t="n">
-        <v>302.2658320988204</v>
+        <v>302.2658320988205</v>
       </c>
       <c r="X29" t="n">
-        <v>322.7559640598764</v>
+        <v>322.7559640598765</v>
       </c>
       <c r="Y29" t="n">
         <v>339.262802037461</v>
@@ -2886,10 +2886,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H30" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I30" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2916,7 +2916,7 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.1429098734098397</v>
       </c>
       <c r="S30" t="n">
         <v>128.1435076414547</v>
@@ -2950,25 +2950,25 @@
         <v>132.8568435633447</v>
       </c>
       <c r="C31" t="n">
-        <v>120.2716844800352</v>
+        <v>120.2716844800353</v>
       </c>
       <c r="D31" t="n">
-        <v>101.6403363996197</v>
+        <v>101.6403363996198</v>
       </c>
       <c r="E31" t="n">
-        <v>99.45882602797656</v>
+        <v>99.45882602797661</v>
       </c>
       <c r="F31" t="n">
-        <v>98.44591140433863</v>
+        <v>98.44591140433869</v>
       </c>
       <c r="G31" t="n">
-        <v>119.0506716404356</v>
+        <v>119.0506716404357</v>
       </c>
       <c r="H31" t="n">
-        <v>97.77987829572817</v>
+        <v>97.77987829572822</v>
       </c>
       <c r="I31" t="n">
-        <v>49.3772837912455</v>
+        <v>49.37728379124554</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,7 +2995,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>41.95701605145473</v>
+        <v>41.95701605145477</v>
       </c>
       <c r="S31" t="n">
         <v>142.7938887128493</v>
@@ -3004,7 +3004,7 @@
         <v>172.5738126575766</v>
       </c>
       <c r="U31" t="n">
-        <v>239.2367015870202</v>
+        <v>239.2367015870203</v>
       </c>
       <c r="V31" t="n">
         <v>205.1625067052354</v>
@@ -3013,7 +3013,7 @@
         <v>239.5478617179984</v>
       </c>
       <c r="X31" t="n">
-        <v>178.7345187704445</v>
+        <v>178.7345187704446</v>
       </c>
       <c r="Y31" t="n">
         <v>171.6095167335022</v>
@@ -3077,7 +3077,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>62.21262516958329</v>
+        <v>62.2126251695833</v>
       </c>
       <c r="T32" t="n">
         <v>156.9428335210276</v>
@@ -3123,10 +3123,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H33" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I33" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3153,7 +3153,7 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S33" t="n">
         <v>128.1435076414547</v>
@@ -3184,7 +3184,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>132.8568435633447</v>
+        <v>132.8568435633448</v>
       </c>
       <c r="C34" t="n">
         <v>120.2716844800353</v>
@@ -3193,16 +3193,16 @@
         <v>101.6403363996198</v>
       </c>
       <c r="E34" t="n">
-        <v>99.45882602797661</v>
+        <v>99.45882602797664</v>
       </c>
       <c r="F34" t="n">
-        <v>98.44591140433869</v>
+        <v>98.44591140433872</v>
       </c>
       <c r="G34" t="n">
         <v>119.0506716404357</v>
       </c>
       <c r="H34" t="n">
-        <v>97.77987829572822</v>
+        <v>97.77987829572825</v>
       </c>
       <c r="I34" t="n">
         <v>49.37728379124555</v>
@@ -3235,25 +3235,25 @@
         <v>41.95701605145479</v>
       </c>
       <c r="S34" t="n">
-        <v>142.7938887128493</v>
+        <v>142.7938887128494</v>
       </c>
       <c r="T34" t="n">
-        <v>172.5738126575766</v>
+        <v>172.5738126575767</v>
       </c>
       <c r="U34" t="n">
         <v>239.2367015870203</v>
       </c>
       <c r="V34" t="n">
-        <v>205.1625067052354</v>
+        <v>205.1625067052355</v>
       </c>
       <c r="W34" t="n">
-        <v>239.5478617179984</v>
+        <v>239.5478617179985</v>
       </c>
       <c r="X34" t="n">
         <v>178.7345187704446</v>
       </c>
       <c r="Y34" t="n">
-        <v>171.6095167335022</v>
+        <v>171.6095167335023</v>
       </c>
     </row>
     <row r="35">
@@ -3266,7 +3266,7 @@
         <v>285.0491214353757</v>
       </c>
       <c r="C35" t="n">
-        <v>267.5881715429027</v>
+        <v>267.5881715429026</v>
       </c>
       <c r="D35" t="n">
         <v>256.9983213925781</v>
@@ -3314,10 +3314,10 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>11.50304156007095</v>
+        <v>11.50304156007093</v>
       </c>
       <c r="T35" t="n">
-        <v>106.2332499115153</v>
+        <v>106.2332499115152</v>
       </c>
       <c r="U35" t="n">
         <v>153.3104517307971</v>
@@ -3360,10 +3360,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H36" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I36" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3390,7 +3390,7 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.1429098734098397</v>
       </c>
       <c r="S36" t="n">
         <v>128.1435076414547</v>
@@ -3421,28 +3421,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>82.1472599538324</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>69.56210087052294</v>
+        <v>69.56210087052293</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>50.93075279010745</v>
       </c>
       <c r="E37" t="n">
-        <v>48.74924241846428</v>
+        <v>48.74924241846426</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>47.73632779482634</v>
       </c>
       <c r="G37" t="n">
-        <v>68.34108803092333</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H37" t="n">
-        <v>47.07029468621589</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3472,13 +3472,13 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>134.2912433677299</v>
+        <v>92.08430510333699</v>
       </c>
       <c r="T37" t="n">
-        <v>219.5489492761692</v>
+        <v>121.8642290480643</v>
       </c>
       <c r="U37" t="n">
-        <v>286.2118382056129</v>
+        <v>188.5271179775079</v>
       </c>
       <c r="V37" t="n">
         <v>154.4529230957231</v>
@@ -3487,10 +3487,10 @@
         <v>188.8382781084861</v>
       </c>
       <c r="X37" t="n">
-        <v>128.0249351609323</v>
+        <v>128.0249351609322</v>
       </c>
       <c r="Y37" t="n">
-        <v>120.8999331239899</v>
+        <v>164.4391712066501</v>
       </c>
     </row>
     <row r="38">
@@ -3500,25 +3500,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>285.0491214353757</v>
+        <v>285.0491214353756</v>
       </c>
       <c r="C38" t="n">
-        <v>267.5881715429027</v>
+        <v>267.5881715429026</v>
       </c>
       <c r="D38" t="n">
-        <v>256.9983213925781</v>
+        <v>256.998321392578</v>
       </c>
       <c r="E38" t="n">
-        <v>284.2456498441569</v>
+        <v>284.2456498441568</v>
       </c>
       <c r="F38" t="n">
-        <v>309.1913255136066</v>
+        <v>309.1913255136064</v>
       </c>
       <c r="G38" t="n">
-        <v>313.2370054253486</v>
+        <v>313.2370054253485</v>
       </c>
       <c r="H38" t="n">
-        <v>196.9230441592156</v>
+        <v>196.9230441592155</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3551,22 +3551,22 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>11.50304156007095</v>
+        <v>11.50304156007087</v>
       </c>
       <c r="T38" t="n">
-        <v>106.2332499115153</v>
+        <v>106.2332499115152</v>
       </c>
       <c r="U38" t="n">
-        <v>153.3104517307971</v>
+        <v>153.310451730797</v>
       </c>
       <c r="V38" t="n">
-        <v>230.06753824203</v>
+        <v>230.0675382420299</v>
       </c>
       <c r="W38" t="n">
-        <v>251.5562484893081</v>
+        <v>251.556248489308</v>
       </c>
       <c r="X38" t="n">
-        <v>272.0463804503642</v>
+        <v>272.046380450364</v>
       </c>
       <c r="Y38" t="n">
         <v>288.5532184279487</v>
@@ -3597,10 +3597,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H39" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I39" t="n">
-        <v>18.8172186824763</v>
+        <v>18.8172186824772</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3627,7 +3627,7 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S39" t="n">
         <v>128.1435076414547</v>
@@ -3658,25 +3658,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>82.1472599538324</v>
+        <v>82.14725995383233</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>69.56210087052287</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>50.93075279010739</v>
       </c>
       <c r="E40" t="n">
-        <v>48.74924241846428</v>
+        <v>48.74924241846421</v>
       </c>
       <c r="F40" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>110.5480262953159</v>
+        <v>68.34108803092326</v>
       </c>
       <c r="H40" t="n">
-        <v>144.7550149143208</v>
+        <v>47.07029468621582</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3709,25 +3709,25 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>92.08430510333702</v>
+        <v>92.08430510333693</v>
       </c>
       <c r="T40" t="n">
-        <v>121.8642290480643</v>
+        <v>121.8642290480642</v>
       </c>
       <c r="U40" t="n">
-        <v>188.527117977508</v>
+        <v>188.5271179775079</v>
       </c>
       <c r="V40" t="n">
-        <v>154.4529230957231</v>
+        <v>196.6598613601169</v>
       </c>
       <c r="W40" t="n">
-        <v>188.8382781084861</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>128.0249351609323</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>120.8999331239899</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="41">
@@ -3737,25 +3737,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>285.0491214353757</v>
+        <v>285.0491214353756</v>
       </c>
       <c r="C41" t="n">
-        <v>267.5881715429027</v>
+        <v>267.5881715429026</v>
       </c>
       <c r="D41" t="n">
-        <v>256.9983213925781</v>
+        <v>256.998321392578</v>
       </c>
       <c r="E41" t="n">
-        <v>284.2456498441569</v>
+        <v>284.2456498441568</v>
       </c>
       <c r="F41" t="n">
-        <v>309.1913255136066</v>
+        <v>309.1913255136064</v>
       </c>
       <c r="G41" t="n">
-        <v>313.2370054253486</v>
+        <v>313.2370054253485</v>
       </c>
       <c r="H41" t="n">
-        <v>196.9230441592156</v>
+        <v>196.9230441592155</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3788,25 +3788,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>11.50304156007095</v>
+        <v>11.50304156007084</v>
       </c>
       <c r="T41" t="n">
-        <v>106.2332499115153</v>
+        <v>106.2332499115151</v>
       </c>
       <c r="U41" t="n">
-        <v>153.3104517307971</v>
+        <v>153.310451730797</v>
       </c>
       <c r="V41" t="n">
-        <v>230.06753824203</v>
+        <v>230.0675382420299</v>
       </c>
       <c r="W41" t="n">
-        <v>251.5562484893081</v>
+        <v>251.556248489308</v>
       </c>
       <c r="X41" t="n">
-        <v>272.0463804503642</v>
+        <v>272.046380450364</v>
       </c>
       <c r="Y41" t="n">
-        <v>288.5532184279487</v>
+        <v>288.5532184279486</v>
       </c>
     </row>
     <row r="42">
@@ -3834,10 +3834,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H42" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I42" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3895,28 +3895,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>82.1472599538324</v>
+        <v>82.1472599538323</v>
       </c>
       <c r="C43" t="n">
-        <v>69.56210087052294</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>50.93075279010746</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>48.74924241846428</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>91.2755658774857</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>166.0258082590282</v>
+        <v>110.5480262953176</v>
       </c>
       <c r="H43" t="n">
-        <v>144.7550149143208</v>
+        <v>47.07029468621579</v>
       </c>
       <c r="I43" t="n">
-        <v>96.35242040983812</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3946,25 +3946,25 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>92.08430510333702</v>
+        <v>92.0843051033369</v>
       </c>
       <c r="T43" t="n">
-        <v>121.8642290480643</v>
+        <v>121.8642290480642</v>
       </c>
       <c r="U43" t="n">
-        <v>286.2118382056129</v>
+        <v>188.5271179775079</v>
       </c>
       <c r="V43" t="n">
-        <v>154.4529230957231</v>
+        <v>154.452923095723</v>
       </c>
       <c r="W43" t="n">
-        <v>188.8382781084861</v>
+        <v>188.838278108486</v>
       </c>
       <c r="X43" t="n">
-        <v>128.0249351609323</v>
+        <v>128.0249351609322</v>
       </c>
       <c r="Y43" t="n">
-        <v>120.8999331239899</v>
+        <v>120.8999331239898</v>
       </c>
     </row>
     <row r="44">
@@ -3974,25 +3974,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>285.0491214353757</v>
+        <v>285.0491214353756</v>
       </c>
       <c r="C44" t="n">
-        <v>267.5881715429027</v>
+        <v>267.5881715429026</v>
       </c>
       <c r="D44" t="n">
-        <v>256.9983213925781</v>
+        <v>256.998321392578</v>
       </c>
       <c r="E44" t="n">
-        <v>284.2456498441569</v>
+        <v>284.2456498441568</v>
       </c>
       <c r="F44" t="n">
-        <v>309.1913255136066</v>
+        <v>309.1913255136064</v>
       </c>
       <c r="G44" t="n">
-        <v>313.2370054253486</v>
+        <v>313.2370054253485</v>
       </c>
       <c r="H44" t="n">
-        <v>196.9230441592156</v>
+        <v>196.9230441592155</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -4025,25 +4025,25 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>11.50304156007095</v>
+        <v>11.50304156007084</v>
       </c>
       <c r="T44" t="n">
-        <v>106.2332499115153</v>
+        <v>106.2332499115151</v>
       </c>
       <c r="U44" t="n">
-        <v>153.3104517307971</v>
+        <v>153.310451730797</v>
       </c>
       <c r="V44" t="n">
-        <v>230.06753824203</v>
+        <v>230.0675382420299</v>
       </c>
       <c r="W44" t="n">
-        <v>251.5562484893081</v>
+        <v>251.556248489308</v>
       </c>
       <c r="X44" t="n">
-        <v>272.0463804503642</v>
+        <v>272.046380450364</v>
       </c>
       <c r="Y44" t="n">
-        <v>288.5532184279487</v>
+        <v>288.5532184279486</v>
       </c>
     </row>
     <row r="45">
@@ -4071,10 +4071,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H45" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I45" t="n">
-        <v>18.81721868247628</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4101,7 +4101,7 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.1429098734098397</v>
       </c>
       <c r="S45" t="n">
         <v>128.1435076414547</v>
@@ -4132,28 +4132,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>82.1472599538324</v>
+        <v>82.1472599538323</v>
       </c>
       <c r="C46" t="n">
-        <v>69.56210087052294</v>
+        <v>69.56210087052284</v>
       </c>
       <c r="D46" t="n">
-        <v>50.93075279010746</v>
+        <v>50.93075279010736</v>
       </c>
       <c r="E46" t="n">
-        <v>48.74924241846428</v>
+        <v>48.74924241846418</v>
       </c>
       <c r="F46" t="n">
-        <v>47.73632779482635</v>
+        <v>47.73632779482625</v>
       </c>
       <c r="G46" t="n">
-        <v>119.3005938533739</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H46" t="n">
-        <v>47.07029468621589</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,28 +4180,28 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>88.93215267004734</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>189.7690253314419</v>
+        <v>135.6235431859981</v>
       </c>
       <c r="T46" t="n">
-        <v>121.8642290480643</v>
+        <v>121.8642290480642</v>
       </c>
       <c r="U46" t="n">
-        <v>286.2118382056129</v>
+        <v>188.5271179775079</v>
       </c>
       <c r="V46" t="n">
-        <v>252.137643323828</v>
+        <v>154.452923095723</v>
       </c>
       <c r="W46" t="n">
-        <v>188.8382781084861</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
-        <v>128.0249351609323</v>
+        <v>128.0249351609322</v>
       </c>
       <c r="Y46" t="n">
-        <v>120.8999331239899</v>
+        <v>120.8999331239898</v>
       </c>
     </row>
   </sheetData>
@@ -5015,37 +5015,37 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1771.029130326016</v>
+        <v>1947.540082407706</v>
       </c>
       <c r="C11" t="n">
-        <v>1429.258680645327</v>
+        <v>1605.769632727018</v>
       </c>
       <c r="D11" t="n">
-        <v>1098.185049298301</v>
+        <v>1274.696001379991</v>
       </c>
       <c r="E11" t="n">
-        <v>739.5888639597802</v>
+        <v>916.0998160414706</v>
       </c>
       <c r="F11" t="n">
-        <v>739.5888639597802</v>
+        <v>532.3059785115868</v>
       </c>
       <c r="G11" t="n">
-        <v>351.7084810645002</v>
+        <v>144.425595616307</v>
       </c>
       <c r="H11" t="n">
-        <v>81.31694793299104</v>
+        <v>81.316947932991</v>
       </c>
       <c r="I11" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J11" t="n">
         <v>255.3912473912087</v>
       </c>
       <c r="K11" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810549</v>
       </c>
       <c r="L11" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M11" t="n">
         <v>1573.776739001389</v>
@@ -5054,37 +5054,37 @@
         <v>2120.555556060171</v>
       </c>
       <c r="O11" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939507</v>
       </c>
       <c r="P11" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296684</v>
       </c>
       <c r="Q11" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052367</v>
       </c>
       <c r="R11" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.605821609169</v>
       </c>
       <c r="S11" t="n">
-        <v>3242.50722039599</v>
+        <v>3242.507220395988</v>
       </c>
       <c r="T11" t="n">
-        <v>3063.721540039936</v>
+        <v>3242.507220395988</v>
       </c>
       <c r="U11" t="n">
-        <v>2837.383130573496</v>
+        <v>3016.168810929548</v>
       </c>
       <c r="V11" t="n">
-        <v>2837.383130573496</v>
+        <v>3016.168810929548</v>
       </c>
       <c r="W11" t="n">
-        <v>2511.806542563106</v>
+        <v>3016.168810929548</v>
       </c>
       <c r="X11" t="n">
-        <v>2165.532851561749</v>
+        <v>2669.895119928192</v>
       </c>
       <c r="Y11" t="n">
-        <v>2130.436903130414</v>
+        <v>2306.947855212104</v>
       </c>
     </row>
     <row r="12">
@@ -5109,37 +5109,37 @@
         <v>312.3844025601599</v>
       </c>
       <c r="G12" t="n">
-        <v>176.0213023927779</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H12" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064548</v>
       </c>
       <c r="I12" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J12" t="n">
-        <v>160.1893859228008</v>
+        <v>160.1893859228006</v>
       </c>
       <c r="K12" t="n">
-        <v>398.4535849031481</v>
+        <v>398.4535849031476</v>
       </c>
       <c r="L12" t="n">
-        <v>765.1517452158137</v>
+        <v>765.1517452158128</v>
       </c>
       <c r="M12" t="n">
-        <v>1212.42807043813</v>
+        <v>1212.428070438129</v>
       </c>
       <c r="N12" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O12" t="n">
-        <v>2096.912393410639</v>
+        <v>2096.912393410637</v>
       </c>
       <c r="P12" t="n">
-        <v>2407.411984886742</v>
+        <v>2407.41198488674</v>
       </c>
       <c r="Q12" t="n">
-        <v>2565.053542533342</v>
+        <v>2565.05354253334</v>
       </c>
       <c r="R12" t="n">
         <v>2564.909189125856</v>
@@ -5173,37 +5173,37 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>480.9510275436839</v>
+        <v>588.5131473110118</v>
       </c>
       <c r="C13" t="n">
-        <v>400.0810678722839</v>
+        <v>446.7690316428286</v>
       </c>
       <c r="D13" t="n">
-        <v>277.1564957196719</v>
+        <v>446.7690316428286</v>
       </c>
       <c r="E13" t="n">
-        <v>277.1564957196719</v>
+        <v>326.0480053201592</v>
       </c>
       <c r="F13" t="n">
-        <v>277.1564957196719</v>
+        <v>326.0480053201592</v>
       </c>
       <c r="G13" t="n">
-        <v>136.6457263541144</v>
+        <v>185.5372359546019</v>
       </c>
       <c r="H13" t="n">
-        <v>136.6457263541144</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="I13" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J13" t="n">
-        <v>138.2856940003741</v>
+        <v>138.285694000374</v>
       </c>
       <c r="K13" t="n">
-        <v>368.9238220705056</v>
+        <v>368.9238220705055</v>
       </c>
       <c r="L13" t="n">
-        <v>712.1345656402569</v>
+        <v>712.1345656402567</v>
       </c>
       <c r="M13" t="n">
         <v>1082.942556361061</v>
@@ -5215,34 +5215,34 @@
         <v>1776.982422229849</v>
       </c>
       <c r="P13" t="n">
-        <v>2036.240867784764</v>
+        <v>2036.240867784763</v>
       </c>
       <c r="Q13" t="n">
-        <v>2140.502109058534</v>
+        <v>2140.502109058533</v>
       </c>
       <c r="R13" t="n">
-        <v>2140.502109058534</v>
+        <v>2077.863719075785</v>
       </c>
       <c r="S13" t="n">
-        <v>1976.008292145084</v>
+        <v>1913.369902162335</v>
       </c>
       <c r="T13" t="n">
-        <v>1781.433743974334</v>
+        <v>1718.795353991585</v>
       </c>
       <c r="U13" t="n">
-        <v>1519.522944359701</v>
+        <v>1456.884554376952</v>
       </c>
       <c r="V13" t="n">
-        <v>1292.030523413537</v>
+        <v>1229.392133430789</v>
       </c>
       <c r="W13" t="n">
-        <v>1029.8054206363</v>
+        <v>967.1670306535523</v>
       </c>
       <c r="X13" t="n">
-        <v>829.0079369980066</v>
+        <v>936.5700567653341</v>
       </c>
       <c r="Y13" t="n">
-        <v>635.4074251142001</v>
+        <v>742.9695448815278</v>
       </c>
     </row>
     <row r="14">
@@ -5252,34 +5252,34 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1756.224298825208</v>
+        <v>1139.306993957415</v>
       </c>
       <c r="C14" t="n">
-        <v>1414.45384914452</v>
+        <v>1139.306993957415</v>
       </c>
       <c r="D14" t="n">
-        <v>1083.380217797493</v>
+        <v>1139.306993957415</v>
       </c>
       <c r="E14" t="n">
-        <v>724.7840324589722</v>
+        <v>1123.382701489664</v>
       </c>
       <c r="F14" t="n">
-        <v>724.7840324589722</v>
+        <v>739.5888639597802</v>
       </c>
       <c r="G14" t="n">
-        <v>336.9036495636924</v>
+        <v>351.7084810645001</v>
       </c>
       <c r="H14" t="n">
-        <v>66.51211643218342</v>
+        <v>81.31694793299098</v>
       </c>
       <c r="I14" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J14" t="n">
-        <v>255.391247391209</v>
+        <v>255.3912473912087</v>
       </c>
       <c r="K14" t="n">
-        <v>589.2106210810556</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L14" t="n">
         <v>1040.244834329464</v>
@@ -5288,40 +5288,40 @@
         <v>1573.776739001388</v>
       </c>
       <c r="N14" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.55555606017</v>
       </c>
       <c r="O14" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939506</v>
       </c>
       <c r="P14" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296684</v>
       </c>
       <c r="Q14" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052367</v>
       </c>
       <c r="R14" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.605821609169</v>
       </c>
       <c r="S14" t="n">
-        <v>3242.50722039599</v>
+        <v>3242.507220395988</v>
       </c>
       <c r="T14" t="n">
-        <v>3242.50722039599</v>
+        <v>3063.721540039934</v>
       </c>
       <c r="U14" t="n">
-        <v>3016.16881092955</v>
+        <v>2837.383130573493</v>
       </c>
       <c r="V14" t="n">
-        <v>2712.297990845703</v>
+        <v>2533.512310489647</v>
       </c>
       <c r="W14" t="n">
-        <v>2461.905762630962</v>
+        <v>2207.935722479257</v>
       </c>
       <c r="X14" t="n">
-        <v>2115.632071629606</v>
+        <v>1861.662031477901</v>
       </c>
       <c r="Y14" t="n">
-        <v>2115.632071629606</v>
+        <v>1498.714766761813</v>
       </c>
     </row>
     <row r="15">
@@ -5346,37 +5346,37 @@
         <v>312.3844025601599</v>
       </c>
       <c r="G15" t="n">
-        <v>176.0213023927779</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H15" t="n">
         <v>85.51940803064545</v>
       </c>
       <c r="I15" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J15" t="n">
-        <v>160.1893859228008</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K15" t="n">
-        <v>398.4535849031481</v>
+        <v>398.4535849031478</v>
       </c>
       <c r="L15" t="n">
-        <v>765.1517452158135</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M15" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N15" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O15" t="n">
-        <v>2096.912393410639</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P15" t="n">
-        <v>2407.411984886742</v>
+        <v>2407.41198488674</v>
       </c>
       <c r="Q15" t="n">
-        <v>2565.053542533342</v>
+        <v>2565.05354253334</v>
       </c>
       <c r="R15" t="n">
         <v>2564.909189125856</v>
@@ -5410,37 +5410,37 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>587.490001226529</v>
+        <v>800.261456077615</v>
       </c>
       <c r="C16" t="n">
-        <v>445.7458855583461</v>
+        <v>658.5173404094318</v>
       </c>
       <c r="D16" t="n">
-        <v>445.7458855583461</v>
+        <v>636.6005218029462</v>
       </c>
       <c r="E16" t="n">
-        <v>445.7458855583461</v>
+        <v>515.8794954802768</v>
       </c>
       <c r="F16" t="n">
-        <v>326.0480053201594</v>
+        <v>396.1816152420902</v>
       </c>
       <c r="G16" t="n">
-        <v>185.537235954602</v>
+        <v>255.6708458765328</v>
       </c>
       <c r="H16" t="n">
-        <v>66.51211643218342</v>
+        <v>136.6457263541143</v>
       </c>
       <c r="I16" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J16" t="n">
         <v>138.2856940003741</v>
       </c>
       <c r="K16" t="n">
-        <v>368.9238220705057</v>
+        <v>368.9238220705056</v>
       </c>
       <c r="L16" t="n">
-        <v>712.1345656402571</v>
+        <v>712.1345656402568</v>
       </c>
       <c r="M16" t="n">
         <v>1082.942556361061</v>
@@ -5458,28 +5458,28 @@
         <v>2140.502109058534</v>
       </c>
       <c r="R16" t="n">
-        <v>2140.502109058534</v>
+        <v>2077.863719075785</v>
       </c>
       <c r="S16" t="n">
-        <v>1976.008292145084</v>
+        <v>1913.369902162335</v>
       </c>
       <c r="T16" t="n">
-        <v>1781.433743974334</v>
+        <v>1718.795353991585</v>
       </c>
       <c r="U16" t="n">
-        <v>1519.522944359701</v>
+        <v>1456.884554376952</v>
       </c>
       <c r="V16" t="n">
-        <v>1292.030523413538</v>
+        <v>1456.884554376952</v>
       </c>
       <c r="W16" t="n">
-        <v>1029.805420636301</v>
+        <v>1194.659451599715</v>
       </c>
       <c r="X16" t="n">
-        <v>829.0079369980068</v>
+        <v>993.8619679614214</v>
       </c>
       <c r="Y16" t="n">
-        <v>635.4074251142004</v>
+        <v>800.261456077615</v>
       </c>
     </row>
     <row r="17">
@@ -5489,76 +5489,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1685.889073215091</v>
+        <v>1855.320338666651</v>
       </c>
       <c r="C17" t="n">
-        <v>1391.568256482476</v>
+        <v>1560.999521934037</v>
       </c>
       <c r="D17" t="n">
-        <v>1107.944258083523</v>
+        <v>1277.375523535083</v>
       </c>
       <c r="E17" t="n">
-        <v>796.7977056930756</v>
+        <v>966.228971144636</v>
       </c>
       <c r="F17" t="n">
-        <v>460.453501111265</v>
+        <v>629.8847665628257</v>
       </c>
       <c r="G17" t="n">
-        <v>120.0227511640584</v>
+        <v>289.4540166156193</v>
       </c>
       <c r="H17" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I17" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J17" t="n">
-        <v>255.3912473912092</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K17" t="n">
-        <v>589.2106210810557</v>
+        <v>589.2106210810562</v>
       </c>
       <c r="L17" t="n">
         <v>1040.244834329465</v>
       </c>
       <c r="M17" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.77673900139</v>
       </c>
       <c r="N17" t="n">
         <v>2120.555556060172</v>
       </c>
       <c r="O17" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939509</v>
       </c>
       <c r="P17" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q17" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R17" t="n">
         <v>3325.605821609171</v>
       </c>
       <c r="S17" t="n">
-        <v>3325.605821609171</v>
+        <v>3289.956853344064</v>
       </c>
       <c r="T17" t="n">
-        <v>3325.605821609171</v>
+        <v>3158.620805936083</v>
       </c>
       <c r="U17" t="n">
-        <v>3146.717045090804</v>
+        <v>2979.732029417716</v>
       </c>
       <c r="V17" t="n">
-        <v>2890.29585795503</v>
+        <v>2744.229491638576</v>
       </c>
       <c r="W17" t="n">
-        <v>2612.168902892713</v>
+        <v>2466.102536576259</v>
       </c>
       <c r="X17" t="n">
-        <v>2313.34484483943</v>
+        <v>2167.278478522976</v>
       </c>
       <c r="Y17" t="n">
-        <v>1997.847213071416</v>
+        <v>2167.278478522976</v>
       </c>
     </row>
     <row r="18">
@@ -5568,76 +5568,76 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>941.5438544811091</v>
+        <v>941.5438544811082</v>
       </c>
       <c r="C18" t="n">
-        <v>767.0908251999821</v>
+        <v>767.0908251999812</v>
       </c>
       <c r="D18" t="n">
-        <v>618.1564155387309</v>
+        <v>618.15641553873</v>
       </c>
       <c r="E18" t="n">
-        <v>458.9189605332754</v>
+        <v>458.9189605332745</v>
       </c>
       <c r="F18" t="n">
-        <v>312.3844025601604</v>
+        <v>312.3844025601595</v>
       </c>
       <c r="G18" t="n">
-        <v>176.0213023927789</v>
+        <v>176.0213023927781</v>
       </c>
       <c r="H18" t="n">
-        <v>85.51940803064583</v>
+        <v>85.51940803064576</v>
       </c>
       <c r="I18" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J18" t="n">
-        <v>160.189385922801</v>
+        <v>160.1893859228006</v>
       </c>
       <c r="K18" t="n">
-        <v>398.4535849031484</v>
+        <v>398.4535849031477</v>
       </c>
       <c r="L18" t="n">
-        <v>765.1517452158139</v>
+        <v>765.1517452158131</v>
       </c>
       <c r="M18" t="n">
-        <v>1212.42807043813</v>
+        <v>1212.428070438129</v>
       </c>
       <c r="N18" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O18" t="n">
-        <v>2096.912393410639</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P18" t="n">
-        <v>2407.411984886742</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q18" t="n">
-        <v>2565.053542533342</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R18" t="n">
-        <v>2564.909189125857</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S18" t="n">
-        <v>2435.471302619337</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T18" t="n">
-        <v>2242.828302297193</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U18" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V18" t="n">
-        <v>1779.608347199866</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W18" t="n">
-        <v>1525.370990471664</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X18" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y18" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="19">
@@ -5647,28 +5647,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>569.1217789872285</v>
+        <v>632.1517731235549</v>
       </c>
       <c r="C19" t="n">
-        <v>474.8272962671185</v>
+        <v>474.8272962671186</v>
       </c>
       <c r="D19" t="n">
-        <v>399.3523570625798</v>
+        <v>399.3523570625799</v>
       </c>
       <c r="E19" t="n">
         <v>326.0809636879837</v>
       </c>
       <c r="F19" t="n">
-        <v>253.8327163978703</v>
+        <v>253.8327163978704</v>
       </c>
       <c r="G19" t="n">
         <v>160.7715799803863</v>
       </c>
       <c r="H19" t="n">
-        <v>89.19609340604107</v>
+        <v>89.19609340604109</v>
       </c>
       <c r="I19" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J19" t="n">
         <v>111.634748879119</v>
@@ -5710,13 +5710,13 @@
         <v>1253.432737201115</v>
       </c>
       <c r="W19" t="n">
-        <v>975.6272732356247</v>
+        <v>1038.657267371951</v>
       </c>
       <c r="X19" t="n">
-        <v>822.2794225454043</v>
+        <v>885.3094166817307</v>
       </c>
       <c r="Y19" t="n">
-        <v>676.1285436096712</v>
+        <v>739.1585377459976</v>
       </c>
     </row>
     <row r="20">
@@ -5726,22 +5726,22 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1797.03101260432</v>
+        <v>1518.904057542003</v>
       </c>
       <c r="C20" t="n">
-        <v>1502.710195871705</v>
+        <v>1224.583240809388</v>
       </c>
       <c r="D20" t="n">
-        <v>1219.086197472752</v>
+        <v>940.9592424104344</v>
       </c>
       <c r="E20" t="n">
-        <v>907.9396450823049</v>
+        <v>629.8126900199873</v>
       </c>
       <c r="F20" t="n">
-        <v>571.5954405004943</v>
+        <v>406.9428663793899</v>
       </c>
       <c r="G20" t="n">
-        <v>289.4540166156193</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H20" t="n">
         <v>66.51211643218343</v>
@@ -5750,22 +5750,22 @@
         <v>66.51211643218343</v>
       </c>
       <c r="J20" t="n">
-        <v>255.3912473912083</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K20" t="n">
-        <v>589.2106210810548</v>
+        <v>589.2106210810566</v>
       </c>
       <c r="L20" t="n">
-        <v>1040.244834329463</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M20" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.77673900139</v>
       </c>
       <c r="N20" t="n">
-        <v>2120.55555606017</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O20" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939509</v>
       </c>
       <c r="P20" t="n">
         <v>3018.302393296687</v>
@@ -5777,7 +5777,7 @@
         <v>3325.605821609171</v>
       </c>
       <c r="S20" t="n">
-        <v>3289.956853344063</v>
+        <v>3289.956853344064</v>
       </c>
       <c r="T20" t="n">
         <v>3158.620805936082</v>
@@ -5789,13 +5789,13 @@
         <v>2723.310842281942</v>
       </c>
       <c r="W20" t="n">
-        <v>2723.310842281942</v>
+        <v>2445.183887219625</v>
       </c>
       <c r="X20" t="n">
-        <v>2424.486784228659</v>
+        <v>2146.359829166342</v>
       </c>
       <c r="Y20" t="n">
-        <v>2108.989152460645</v>
+        <v>1830.862197398327</v>
       </c>
     </row>
     <row r="21">
@@ -5938,10 +5938,10 @@
         <v>1795.061607088441</v>
       </c>
       <c r="T22" t="n">
-        <v>1584.906697729438</v>
+        <v>1647.936691865764</v>
       </c>
       <c r="U22" t="n">
-        <v>1370.445531062878</v>
+        <v>1433.475525199205</v>
       </c>
       <c r="V22" t="n">
         <v>1190.402743064788</v>
@@ -5963,76 +5963,76 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1862.18597705695</v>
+        <v>1862.185977056951</v>
       </c>
       <c r="C23" t="n">
-        <v>1567.865160324336</v>
+        <v>1567.865160324337</v>
       </c>
       <c r="D23" t="n">
-        <v>1284.241161925382</v>
+        <v>1284.241161925383</v>
       </c>
       <c r="E23" t="n">
-        <v>973.094609534935</v>
+        <v>973.0946095349359</v>
       </c>
       <c r="F23" t="n">
-        <v>636.7504049531244</v>
+        <v>636.7504049531253</v>
       </c>
       <c r="G23" t="n">
         <v>296.3196550059182</v>
       </c>
       <c r="H23" t="n">
-        <v>73.37775482248237</v>
+        <v>73.3777548224824</v>
       </c>
       <c r="I23" t="n">
-        <v>73.37775482248237</v>
+        <v>73.3777548224824</v>
       </c>
       <c r="J23" t="n">
         <v>262.2568857815078</v>
       </c>
       <c r="K23" t="n">
-        <v>596.0762594713542</v>
+        <v>596.0762594713543</v>
       </c>
       <c r="L23" t="n">
         <v>1047.110472719763</v>
       </c>
       <c r="M23" t="n">
-        <v>1580.642377391687</v>
+        <v>1580.642377391688</v>
       </c>
       <c r="N23" t="n">
         <v>2127.42119445047</v>
       </c>
       <c r="O23" t="n">
-        <v>2966.809946454456</v>
+        <v>2648.229225364689</v>
       </c>
       <c r="P23" t="n">
-        <v>3361.584312811634</v>
+        <v>3361.584312811635</v>
       </c>
       <c r="Q23" t="n">
-        <v>3609.870674567316</v>
+        <v>3609.870674567317</v>
       </c>
       <c r="R23" t="n">
-        <v>3668.887741124119</v>
+        <v>3668.88774112412</v>
       </c>
       <c r="S23" t="n">
-        <v>3633.238772859011</v>
+        <v>3633.238772859012</v>
       </c>
       <c r="T23" t="n">
-        <v>3501.90272545103</v>
+        <v>3501.902725451031</v>
       </c>
       <c r="U23" t="n">
-        <v>3323.013948932663</v>
+        <v>3323.013948932665</v>
       </c>
       <c r="V23" t="n">
-        <v>3066.59276179689</v>
+        <v>3066.592761796891</v>
       </c>
       <c r="W23" t="n">
-        <v>2788.465806734573</v>
+        <v>2788.465806734574</v>
       </c>
       <c r="X23" t="n">
-        <v>2489.64174868129</v>
+        <v>2489.641748681291</v>
       </c>
       <c r="Y23" t="n">
-        <v>2174.144116913275</v>
+        <v>2174.144116913276</v>
       </c>
     </row>
     <row r="24">
@@ -6063,31 +6063,31 @@
         <v>92.38504642094443</v>
       </c>
       <c r="I24" t="n">
-        <v>73.37775482248237</v>
+        <v>73.3777548224824</v>
       </c>
       <c r="J24" t="n">
-        <v>167.0550243130996</v>
+        <v>167.0550243130998</v>
       </c>
       <c r="K24" t="n">
-        <v>405.3192232934467</v>
+        <v>405.3192232934469</v>
       </c>
       <c r="L24" t="n">
-        <v>772.0173836061119</v>
+        <v>772.0173836061123</v>
       </c>
       <c r="M24" t="n">
         <v>1219.293708828428</v>
       </c>
       <c r="N24" t="n">
-        <v>1692.816752382882</v>
+        <v>1692.816752382883</v>
       </c>
       <c r="O24" t="n">
-        <v>2103.778031800937</v>
+        <v>2103.778031800938</v>
       </c>
       <c r="P24" t="n">
-        <v>2414.277623277039</v>
+        <v>2414.277623277041</v>
       </c>
       <c r="Q24" t="n">
-        <v>2571.919180923639</v>
+        <v>2571.91918092364</v>
       </c>
       <c r="R24" t="n">
         <v>2571.774827516155</v>
@@ -6139,22 +6139,22 @@
         <v>167.6372183706853</v>
       </c>
       <c r="H25" t="n">
-        <v>96.06173179634004</v>
+        <v>96.06173179634006</v>
       </c>
       <c r="I25" t="n">
-        <v>73.37775482248237</v>
+        <v>73.3777548224824</v>
       </c>
       <c r="J25" t="n">
-        <v>118.5003872694179</v>
+        <v>118.500387269418</v>
       </c>
       <c r="K25" t="n">
-        <v>322.4875702182942</v>
+        <v>322.4875702182943</v>
       </c>
       <c r="L25" t="n">
         <v>639.0473686667904</v>
       </c>
       <c r="M25" t="n">
-        <v>983.2044142663393</v>
+        <v>983.2044142663394</v>
       </c>
       <c r="N25" t="n">
         <v>1324.612790972204</v>
@@ -6166,10 +6166,10 @@
         <v>1856.549890326277</v>
       </c>
       <c r="Q25" t="n">
-        <v>1934.160186478791</v>
+        <v>1934.160186478792</v>
       </c>
       <c r="R25" t="n">
-        <v>1918.971429444116</v>
+        <v>1855.94143530779</v>
       </c>
       <c r="S25" t="n">
         <v>1738.897251342413</v>
@@ -6200,76 +6200,76 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2033.107542689499</v>
+        <v>2033.107542689501</v>
       </c>
       <c r="C26" t="n">
-        <v>1711.594658697161</v>
+        <v>1711.594658697162</v>
       </c>
       <c r="D26" t="n">
-        <v>1400.778593038484</v>
+        <v>1400.778593038485</v>
       </c>
       <c r="E26" t="n">
-        <v>1062.439973388313</v>
+        <v>1062.439973388314</v>
       </c>
       <c r="F26" t="n">
-        <v>698.9037015467788</v>
+        <v>698.90370154678</v>
       </c>
       <c r="G26" t="n">
-        <v>331.2808843398486</v>
+        <v>331.2808843398487</v>
       </c>
       <c r="H26" t="n">
-        <v>81.14691689668915</v>
+        <v>81.14691689668918</v>
       </c>
       <c r="I26" t="n">
-        <v>81.14691689668915</v>
+        <v>81.14691689668918</v>
       </c>
       <c r="J26" t="n">
-        <v>270.0260478557145</v>
+        <v>331.9210317052871</v>
       </c>
       <c r="K26" t="n">
-        <v>603.8454215455608</v>
+        <v>665.7404053951336</v>
       </c>
       <c r="L26" t="n">
-        <v>1054.879634793969</v>
+        <v>1116.774618643542</v>
       </c>
       <c r="M26" t="n">
-        <v>1872.543307058812</v>
+        <v>2095.324921473371</v>
       </c>
       <c r="N26" t="n">
-        <v>2852.295579285458</v>
+        <v>2642.103738532153</v>
       </c>
       <c r="O26" t="n">
-        <v>3355.268050164795</v>
+        <v>3145.07620941149</v>
       </c>
       <c r="P26" t="n">
-        <v>3750.042416521973</v>
+        <v>3539.850575768668</v>
       </c>
       <c r="Q26" t="n">
-        <v>3998.328778277655</v>
+        <v>3998.328778277657</v>
       </c>
       <c r="R26" t="n">
-        <v>4057.345844834458</v>
+        <v>4057.345844834459</v>
       </c>
       <c r="S26" t="n">
-        <v>3994.504809309626</v>
+        <v>3994.504809309627</v>
       </c>
       <c r="T26" t="n">
-        <v>3835.976694641921</v>
+        <v>3835.976694641922</v>
       </c>
       <c r="U26" t="n">
-        <v>3629.895850863831</v>
+        <v>3629.895850863832</v>
       </c>
       <c r="V26" t="n">
-        <v>3346.282596468334</v>
+        <v>3346.282596468335</v>
       </c>
       <c r="W26" t="n">
-        <v>3040.963574146293</v>
+        <v>3040.963574146294</v>
       </c>
       <c r="X26" t="n">
-        <v>2714.947448833286</v>
+        <v>2714.947448833288</v>
       </c>
       <c r="Y26" t="n">
-        <v>2372.257749805548</v>
+        <v>2372.257749805549</v>
       </c>
     </row>
     <row r="27">
@@ -6279,73 +6279,73 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>956.1786549456135</v>
+        <v>956.1786549456143</v>
       </c>
       <c r="C27" t="n">
-        <v>781.7256256644865</v>
+        <v>781.7256256644873</v>
       </c>
       <c r="D27" t="n">
-        <v>632.7912160032353</v>
+        <v>632.7912160032361</v>
       </c>
       <c r="E27" t="n">
-        <v>473.5537609977798</v>
+        <v>473.5537609977806</v>
       </c>
       <c r="F27" t="n">
-        <v>327.0192030246648</v>
+        <v>327.0192030246656</v>
       </c>
       <c r="G27" t="n">
-        <v>190.6561028572829</v>
+        <v>190.6561028572837</v>
       </c>
       <c r="H27" t="n">
-        <v>100.1542084951504</v>
+        <v>100.1542084951512</v>
       </c>
       <c r="I27" t="n">
-        <v>81.14691689668915</v>
+        <v>81.14691689668918</v>
       </c>
       <c r="J27" t="n">
-        <v>174.8241863873064</v>
+        <v>174.8241863873065</v>
       </c>
       <c r="K27" t="n">
-        <v>413.0883853676535</v>
+        <v>413.0883853676536</v>
       </c>
       <c r="L27" t="n">
-        <v>779.7865456803188</v>
+        <v>779.786545680319</v>
       </c>
       <c r="M27" t="n">
         <v>1227.062870902635</v>
       </c>
       <c r="N27" t="n">
-        <v>1700.585914457089</v>
+        <v>1700.58591445709</v>
       </c>
       <c r="O27" t="n">
         <v>2111.547193875144</v>
       </c>
       <c r="P27" t="n">
-        <v>2422.046785351246</v>
+        <v>2422.046785351247</v>
       </c>
       <c r="Q27" t="n">
-        <v>2579.688342997846</v>
+        <v>2579.688342997847</v>
       </c>
       <c r="R27" t="n">
-        <v>2579.543989590361</v>
+        <v>2579.543989590362</v>
       </c>
       <c r="S27" t="n">
-        <v>2450.106103083841</v>
+        <v>2450.106103083842</v>
       </c>
       <c r="T27" t="n">
-        <v>2257.463102761697</v>
+        <v>2257.463102761698</v>
       </c>
       <c r="U27" t="n">
         <v>2029.395255896113</v>
       </c>
       <c r="V27" t="n">
-        <v>1794.24314766437</v>
+        <v>1794.243147664371</v>
       </c>
       <c r="W27" t="n">
-        <v>1540.005790936168</v>
+        <v>1540.005790936169</v>
       </c>
       <c r="X27" t="n">
-        <v>1332.154290730635</v>
+        <v>1332.154290730636</v>
       </c>
       <c r="Y27" t="n">
         <v>1124.393991965682</v>
@@ -6358,28 +6358,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>774.1010502697998</v>
+        <v>774.1010502698001</v>
       </c>
       <c r="C28" t="n">
-        <v>652.6145002899661</v>
+        <v>652.6145002899665</v>
       </c>
       <c r="D28" t="n">
-        <v>549.9474938257038</v>
+        <v>549.9474938257041</v>
       </c>
       <c r="E28" t="n">
-        <v>449.484033191384</v>
+        <v>449.4840331913842</v>
       </c>
       <c r="F28" t="n">
-        <v>350.043718641547</v>
+        <v>350.0437186415472</v>
       </c>
       <c r="G28" t="n">
-        <v>229.7905149643393</v>
+        <v>229.7905149643394</v>
       </c>
       <c r="H28" t="n">
         <v>131.0229611302705</v>
       </c>
       <c r="I28" t="n">
-        <v>81.14691689668915</v>
+        <v>81.14691689668918</v>
       </c>
       <c r="J28" t="n">
         <v>172.7749345960314</v>
@@ -6403,13 +6403,13 @@
         <v>2189.85674916733</v>
       </c>
       <c r="Q28" t="n">
-        <v>2313.97243057225</v>
+        <v>2313.972430572251</v>
       </c>
       <c r="R28" t="n">
-        <v>2271.591606277851</v>
+        <v>2271.591606277852</v>
       </c>
       <c r="S28" t="n">
-        <v>2127.355355052751</v>
+        <v>2127.355355052752</v>
       </c>
       <c r="T28" t="n">
         <v>1953.038372570351</v>
@@ -6418,7 +6418,7 @@
         <v>1711.385138644068</v>
       </c>
       <c r="V28" t="n">
-        <v>1504.150283386254</v>
+        <v>1504.150283386255</v>
       </c>
       <c r="W28" t="n">
         <v>1262.182746297367</v>
@@ -6427,7 +6427,7 @@
         <v>1081.642828347423</v>
       </c>
       <c r="Y28" t="n">
-        <v>908.2998821519661</v>
+        <v>908.2998821519666</v>
       </c>
     </row>
     <row r="29">
@@ -6437,64 +6437,64 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2033.1075426895</v>
+        <v>2033.107542689499</v>
       </c>
       <c r="C29" t="n">
-        <v>1711.594658697162</v>
+        <v>1711.594658697161</v>
       </c>
       <c r="D29" t="n">
         <v>1400.778593038484</v>
       </c>
       <c r="E29" t="n">
-        <v>1062.439973388314</v>
+        <v>1062.439973388313</v>
       </c>
       <c r="F29" t="n">
         <v>698.9037015467793</v>
       </c>
       <c r="G29" t="n">
-        <v>331.2808843398486</v>
+        <v>331.2808843398487</v>
       </c>
       <c r="H29" t="n">
-        <v>81.14691689668915</v>
+        <v>81.14691689668916</v>
       </c>
       <c r="I29" t="n">
-        <v>81.14691689668915</v>
+        <v>81.14691689668916</v>
       </c>
       <c r="J29" t="n">
-        <v>270.0260478557145</v>
+        <v>270.0260478557146</v>
       </c>
       <c r="K29" t="n">
-        <v>792.1780824632694</v>
+        <v>625.3777437664567</v>
       </c>
       <c r="L29" t="n">
-        <v>1243.212295711678</v>
+        <v>1076.411957014865</v>
       </c>
       <c r="M29" t="n">
-        <v>1776.744200383602</v>
+        <v>1609.94386168679</v>
       </c>
       <c r="N29" t="n">
-        <v>2323.523017442385</v>
+        <v>2156.722678745572</v>
       </c>
       <c r="O29" t="n">
-        <v>2826.495488321721</v>
+        <v>3036.687329075027</v>
       </c>
       <c r="P29" t="n">
-        <v>3539.850575768667</v>
+        <v>3750.042416521973</v>
       </c>
       <c r="Q29" t="n">
-        <v>3998.328778277655</v>
+        <v>3998.328778277656</v>
       </c>
       <c r="R29" t="n">
         <v>4057.345844834458</v>
       </c>
       <c r="S29" t="n">
-        <v>3994.504809309626</v>
+        <v>3994.504809309627</v>
       </c>
       <c r="T29" t="n">
-        <v>3835.976694641921</v>
+        <v>3835.976694641922</v>
       </c>
       <c r="U29" t="n">
-        <v>3629.895850863831</v>
+        <v>3629.895850863832</v>
       </c>
       <c r="V29" t="n">
         <v>3346.282596468334</v>
@@ -6503,7 +6503,7 @@
         <v>3040.963574146293</v>
       </c>
       <c r="X29" t="n">
-        <v>2714.947448833287</v>
+        <v>2714.947448833286</v>
       </c>
       <c r="Y29" t="n">
         <v>2372.257749805548</v>
@@ -6516,16 +6516,16 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>956.1786549456142</v>
+        <v>956.1786549456143</v>
       </c>
       <c r="C30" t="n">
-        <v>781.7256256644872</v>
+        <v>781.7256256644873</v>
       </c>
       <c r="D30" t="n">
         <v>632.7912160032361</v>
       </c>
       <c r="E30" t="n">
-        <v>473.5537609977805</v>
+        <v>473.5537609977806</v>
       </c>
       <c r="F30" t="n">
         <v>327.0192030246656</v>
@@ -6537,16 +6537,16 @@
         <v>100.1542084951512</v>
       </c>
       <c r="I30" t="n">
-        <v>81.14691689668915</v>
+        <v>81.14691689668916</v>
       </c>
       <c r="J30" t="n">
-        <v>174.8241863873063</v>
+        <v>174.8241863873065</v>
       </c>
       <c r="K30" t="n">
-        <v>413.0883853676534</v>
+        <v>413.0883853676536</v>
       </c>
       <c r="L30" t="n">
-        <v>779.7865456803187</v>
+        <v>779.786545680319</v>
       </c>
       <c r="M30" t="n">
         <v>1227.062870902635</v>
@@ -6595,28 +6595,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>774.1010502697998</v>
+        <v>774.1010502698001</v>
       </c>
       <c r="C31" t="n">
-        <v>652.6145002899661</v>
+        <v>652.6145002899665</v>
       </c>
       <c r="D31" t="n">
-        <v>549.9474938257038</v>
+        <v>549.9474938257041</v>
       </c>
       <c r="E31" t="n">
-        <v>449.484033191384</v>
+        <v>449.4840331913842</v>
       </c>
       <c r="F31" t="n">
-        <v>350.043718641547</v>
+        <v>350.0437186415472</v>
       </c>
       <c r="G31" t="n">
-        <v>229.7905149643393</v>
+        <v>229.7905149643394</v>
       </c>
       <c r="H31" t="n">
         <v>131.0229611302705</v>
       </c>
       <c r="I31" t="n">
-        <v>81.14691689668915</v>
+        <v>81.14691689668916</v>
       </c>
       <c r="J31" t="n">
         <v>172.7749345960314</v>
@@ -6634,19 +6634,19 @@
         <v>1564.908879308444</v>
       </c>
       <c r="O31" t="n">
-        <v>1910.743863481263</v>
+        <v>1910.743863481264</v>
       </c>
       <c r="P31" t="n">
-        <v>2189.856749167329</v>
+        <v>2189.85674916733</v>
       </c>
       <c r="Q31" t="n">
-        <v>2313.97243057225</v>
+        <v>2313.972430572251</v>
       </c>
       <c r="R31" t="n">
-        <v>2271.591606277851</v>
+        <v>2271.591606277852</v>
       </c>
       <c r="S31" t="n">
-        <v>2127.355355052751</v>
+        <v>2127.355355052752</v>
       </c>
       <c r="T31" t="n">
         <v>1953.038372570351</v>
@@ -6655,7 +6655,7 @@
         <v>1711.385138644068</v>
       </c>
       <c r="V31" t="n">
-        <v>1504.150283386254</v>
+        <v>1504.150283386255</v>
       </c>
       <c r="W31" t="n">
         <v>1262.182746297367</v>
@@ -6664,7 +6664,7 @@
         <v>1081.642828347423</v>
       </c>
       <c r="Y31" t="n">
-        <v>908.2998821519661</v>
+        <v>908.2998821519666</v>
       </c>
     </row>
     <row r="32">
@@ -6674,10 +6674,10 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2033.107542689499</v>
+        <v>2033.1075426895</v>
       </c>
       <c r="C32" t="n">
-        <v>1711.594658697161</v>
+        <v>1711.594658697162</v>
       </c>
       <c r="D32" t="n">
         <v>1400.778593038484</v>
@@ -6686,52 +6686,52 @@
         <v>1062.439973388313</v>
       </c>
       <c r="F32" t="n">
-        <v>698.9037015467786</v>
+        <v>698.9037015467791</v>
       </c>
       <c r="G32" t="n">
         <v>331.2808843398487</v>
       </c>
       <c r="H32" t="n">
-        <v>81.14691689668915</v>
+        <v>81.14691689668916</v>
       </c>
       <c r="I32" t="n">
-        <v>81.14691689668915</v>
+        <v>81.14691689668916</v>
       </c>
       <c r="J32" t="n">
-        <v>437.4316968760676</v>
+        <v>399.9472504130723</v>
       </c>
       <c r="K32" t="n">
-        <v>1092.155029011367</v>
+        <v>733.7666241029187</v>
       </c>
       <c r="L32" t="n">
-        <v>1543.189242259775</v>
+        <v>1184.800837351328</v>
       </c>
       <c r="M32" t="n">
-        <v>2076.7211469317</v>
+        <v>1718.332742023252</v>
       </c>
       <c r="N32" t="n">
-        <v>2623.499963990482</v>
+        <v>2265.111559082035</v>
       </c>
       <c r="O32" t="n">
-        <v>3126.472434869819</v>
+        <v>3145.076209411489</v>
       </c>
       <c r="P32" t="n">
-        <v>3750.042416521973</v>
+        <v>3539.850575768668</v>
       </c>
       <c r="Q32" t="n">
-        <v>3998.328778277655</v>
+        <v>3998.328778277656</v>
       </c>
       <c r="R32" t="n">
         <v>4057.345844834458</v>
       </c>
       <c r="S32" t="n">
-        <v>3994.504809309626</v>
+        <v>3994.504809309627</v>
       </c>
       <c r="T32" t="n">
-        <v>3835.976694641921</v>
+        <v>3835.976694641922</v>
       </c>
       <c r="U32" t="n">
-        <v>3629.895850863831</v>
+        <v>3629.895850863832</v>
       </c>
       <c r="V32" t="n">
         <v>3346.282596468334</v>
@@ -6740,7 +6740,7 @@
         <v>3040.963574146293</v>
       </c>
       <c r="X32" t="n">
-        <v>2714.947448833286</v>
+        <v>2714.947448833287</v>
       </c>
       <c r="Y32" t="n">
         <v>2372.257749805548</v>
@@ -6774,16 +6774,16 @@
         <v>100.1542084951512</v>
       </c>
       <c r="I33" t="n">
-        <v>81.14691689668915</v>
+        <v>81.14691689668916</v>
       </c>
       <c r="J33" t="n">
-        <v>174.8241863873064</v>
+        <v>174.8241863873065</v>
       </c>
       <c r="K33" t="n">
-        <v>413.0883853676542</v>
+        <v>413.0883853676536</v>
       </c>
       <c r="L33" t="n">
-        <v>779.7865456803195</v>
+        <v>779.786545680319</v>
       </c>
       <c r="M33" t="n">
         <v>1227.062870902635</v>
@@ -6832,16 +6832,16 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>774.1010502698</v>
+        <v>774.1010502698002</v>
       </c>
       <c r="C34" t="n">
-        <v>652.6145002899664</v>
+        <v>652.6145002899666</v>
       </c>
       <c r="D34" t="n">
-        <v>549.947493825704</v>
+        <v>549.9474938257041</v>
       </c>
       <c r="E34" t="n">
-        <v>449.4840331913841</v>
+        <v>449.4840331913842</v>
       </c>
       <c r="F34" t="n">
         <v>350.0437186415471</v>
@@ -6853,19 +6853,19 @@
         <v>131.0229611302705</v>
       </c>
       <c r="I34" t="n">
-        <v>81.14691689668915</v>
+        <v>81.14691689668916</v>
       </c>
       <c r="J34" t="n">
-        <v>172.7749345960313</v>
+        <v>172.7749345960314</v>
       </c>
       <c r="K34" t="n">
-        <v>423.2675027973141</v>
+        <v>423.2675027973146</v>
       </c>
       <c r="L34" t="n">
-        <v>786.3326864982168</v>
+        <v>786.3326864982173</v>
       </c>
       <c r="M34" t="n">
-        <v>1176.995117350172</v>
+        <v>1176.995117350173</v>
       </c>
       <c r="N34" t="n">
         <v>1564.908879308444</v>
@@ -6892,16 +6892,16 @@
         <v>1711.385138644068</v>
       </c>
       <c r="V34" t="n">
-        <v>1504.150283386254</v>
+        <v>1504.150283386255</v>
       </c>
       <c r="W34" t="n">
         <v>1262.182746297367</v>
       </c>
       <c r="X34" t="n">
-        <v>1081.642828347423</v>
+        <v>1081.642828347424</v>
       </c>
       <c r="Y34" t="n">
-        <v>908.2998821519664</v>
+        <v>908.2998821519667</v>
       </c>
     </row>
     <row r="35">
@@ -6911,7 +6911,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1711.141932470374</v>
+        <v>1711.141932470373</v>
       </c>
       <c r="C35" t="n">
         <v>1440.850850103805</v>
@@ -6920,10 +6920,10 @@
         <v>1181.256586070898</v>
       </c>
       <c r="E35" t="n">
-        <v>894.1397680464974</v>
+        <v>894.139768046497</v>
       </c>
       <c r="F35" t="n">
-        <v>581.8252978307331</v>
+        <v>581.8252978307328</v>
       </c>
       <c r="G35" t="n">
         <v>265.4242822495729</v>
@@ -6935,34 +6935,34 @@
         <v>66.51211643218343</v>
       </c>
       <c r="J35" t="n">
-        <v>255.3912473912088</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K35" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810571</v>
       </c>
       <c r="L35" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329466</v>
       </c>
       <c r="M35" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.77673900139</v>
       </c>
       <c r="N35" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060173</v>
       </c>
       <c r="O35" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.52802693951</v>
       </c>
       <c r="P35" t="n">
-        <v>3018.302393296685</v>
+        <v>3018.302393296688</v>
       </c>
       <c r="Q35" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.58875505237</v>
       </c>
       <c r="R35" t="n">
         <v>3325.605821609171</v>
       </c>
       <c r="S35" t="n">
-        <v>3313.98658771011</v>
+        <v>3313.986587710109</v>
       </c>
       <c r="T35" t="n">
         <v>3206.680274668175</v>
@@ -6977,7 +6977,7 @@
         <v>2565.332559049857</v>
       </c>
       <c r="X35" t="n">
-        <v>2290.538235362621</v>
+        <v>2290.53823536262</v>
       </c>
       <c r="Y35" t="n">
         <v>1999.070337960652</v>
@@ -7008,25 +7008,25 @@
         <v>176.021302392778</v>
       </c>
       <c r="H36" t="n">
-        <v>85.51940803064551</v>
+        <v>85.51940803064548</v>
       </c>
       <c r="I36" t="n">
         <v>66.51211643218343</v>
       </c>
       <c r="J36" t="n">
-        <v>160.1893859228011</v>
+        <v>160.1893859228008</v>
       </c>
       <c r="K36" t="n">
-        <v>398.4535849031482</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L36" t="n">
-        <v>765.1517452158134</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M36" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N36" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O36" t="n">
         <v>2096.912393410638</v>
@@ -7069,25 +7069,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>599.6022649647795</v>
+        <v>696.927942146434</v>
       </c>
       <c r="C37" t="n">
-        <v>529.3375166107159</v>
+        <v>626.6631937923704</v>
       </c>
       <c r="D37" t="n">
-        <v>379.2208771983802</v>
+        <v>575.217988953878</v>
       </c>
       <c r="E37" t="n">
-        <v>329.9792181898304</v>
+        <v>525.9763299453283</v>
       </c>
       <c r="F37" t="n">
-        <v>183.08927069192</v>
+        <v>477.7578170212613</v>
       </c>
       <c r="G37" t="n">
-        <v>114.0578686404823</v>
+        <v>310.0549803959803</v>
       </c>
       <c r="H37" t="n">
-        <v>66.51211643218343</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="I37" t="n">
         <v>66.51211643218343</v>
@@ -7096,13 +7096,13 @@
         <v>111.634748879119</v>
       </c>
       <c r="K37" t="n">
-        <v>315.6219318279953</v>
+        <v>315.6219318279954</v>
       </c>
       <c r="L37" t="n">
         <v>632.1817302764914</v>
       </c>
       <c r="M37" t="n">
-        <v>976.3387758760404</v>
+        <v>976.3387758760405</v>
       </c>
       <c r="N37" t="n">
         <v>1317.747152581905</v>
@@ -7114,31 +7114,31 @@
         <v>1849.684251935978</v>
       </c>
       <c r="Q37" t="n">
-        <v>1927.294548088492</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="R37" t="n">
-        <v>1927.294548088492</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="S37" t="n">
-        <v>1791.646827515028</v>
+        <v>1834.280098489163</v>
       </c>
       <c r="T37" t="n">
-        <v>1569.880212084554</v>
+        <v>1711.184917632532</v>
       </c>
       <c r="U37" t="n">
-        <v>1280.777345210197</v>
+        <v>1520.753485332019</v>
       </c>
       <c r="V37" t="n">
-        <v>1124.764291578154</v>
+        <v>1364.740431699975</v>
       </c>
       <c r="W37" t="n">
-        <v>934.0185561150365</v>
+        <v>1173.994696236858</v>
       </c>
       <c r="X37" t="n">
-        <v>804.7004397908626</v>
+        <v>1044.676579912684</v>
       </c>
       <c r="Y37" t="n">
-        <v>682.5792952211758</v>
+        <v>878.5764069766738</v>
       </c>
     </row>
     <row r="38">
@@ -7148,76 +7148,76 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1711.141932470373</v>
+        <v>1711.141932470375</v>
       </c>
       <c r="C38" t="n">
-        <v>1440.850850103805</v>
+        <v>1440.850850103807</v>
       </c>
       <c r="D38" t="n">
-        <v>1181.256586070898</v>
+        <v>1181.2565860709</v>
       </c>
       <c r="E38" t="n">
-        <v>894.139768046497</v>
+        <v>894.1397680464988</v>
       </c>
       <c r="F38" t="n">
-        <v>581.8252978307328</v>
+        <v>581.8252978307346</v>
       </c>
       <c r="G38" t="n">
-        <v>265.4242822495729</v>
+        <v>265.4242822495728</v>
       </c>
       <c r="H38" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I38" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J38" t="n">
-        <v>255.3912473912096</v>
+        <v>255.3912473912083</v>
       </c>
       <c r="K38" t="n">
-        <v>589.2106210810562</v>
+        <v>589.2106210810548</v>
       </c>
       <c r="L38" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329463</v>
       </c>
       <c r="M38" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N38" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.55555606017</v>
       </c>
       <c r="O38" t="n">
         <v>2623.528026939508</v>
       </c>
       <c r="P38" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q38" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R38" t="n">
         <v>3325.605821609171</v>
       </c>
       <c r="S38" t="n">
-        <v>3313.986587710109</v>
+        <v>3313.98658771011</v>
       </c>
       <c r="T38" t="n">
-        <v>3206.680274668174</v>
+        <v>3206.680274668176</v>
       </c>
       <c r="U38" t="n">
-        <v>3051.821232515855</v>
+        <v>3051.821232515856</v>
       </c>
       <c r="V38" t="n">
-        <v>2819.429779746127</v>
+        <v>2819.429779746129</v>
       </c>
       <c r="W38" t="n">
-        <v>2565.332559049857</v>
+        <v>2565.332559049858</v>
       </c>
       <c r="X38" t="n">
-        <v>2290.53823536262</v>
+        <v>2290.538235362622</v>
       </c>
       <c r="Y38" t="n">
-        <v>1999.070337960652</v>
+        <v>1999.070337960654</v>
       </c>
     </row>
     <row r="39">
@@ -7227,37 +7227,37 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>941.5438544811075</v>
+        <v>941.5438544811084</v>
       </c>
       <c r="C39" t="n">
-        <v>767.0908251999805</v>
+        <v>767.0908251999814</v>
       </c>
       <c r="D39" t="n">
-        <v>618.1564155387292</v>
+        <v>618.1564155387301</v>
       </c>
       <c r="E39" t="n">
-        <v>458.9189605332737</v>
+        <v>458.9189605332746</v>
       </c>
       <c r="F39" t="n">
-        <v>312.3844025601587</v>
+        <v>312.3844025601596</v>
       </c>
       <c r="G39" t="n">
-        <v>176.0213023927768</v>
+        <v>176.0213023927777</v>
       </c>
       <c r="H39" t="n">
-        <v>85.51940803064433</v>
+        <v>85.51940803064525</v>
       </c>
       <c r="I39" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J39" t="n">
-        <v>160.1893859228007</v>
+        <v>160.1893859228008</v>
       </c>
       <c r="K39" t="n">
-        <v>398.4535849031478</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L39" t="n">
-        <v>765.151745215813</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M39" t="n">
         <v>1212.428070438129</v>
@@ -7269,31 +7269,31 @@
         <v>2096.912393410638</v>
       </c>
       <c r="P39" t="n">
-        <v>2407.41198488674</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q39" t="n">
-        <v>2565.05354253334</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R39" t="n">
-        <v>2564.909189125855</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S39" t="n">
-        <v>2435.471302619335</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T39" t="n">
-        <v>2242.828302297191</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U39" t="n">
-        <v>2014.760455431606</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V39" t="n">
-        <v>1779.608347199864</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W39" t="n">
-        <v>1525.370990471662</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X39" t="n">
-        <v>1317.519490266129</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y39" t="n">
         <v>1109.759191501176</v>
@@ -7306,40 +7306,40 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>839.5784050866</v>
+        <v>500.9308303909358</v>
       </c>
       <c r="C40" t="n">
-        <v>670.6422221586931</v>
+        <v>430.6660820368723</v>
       </c>
       <c r="D40" t="n">
-        <v>520.5255827463574</v>
+        <v>379.22087719838</v>
       </c>
       <c r="E40" t="n">
-        <v>471.2839237378076</v>
+        <v>329.9792181898302</v>
       </c>
       <c r="F40" t="n">
-        <v>324.3939762398973</v>
+        <v>183.0892706919199</v>
       </c>
       <c r="G40" t="n">
-        <v>212.7293032143256</v>
+        <v>114.0578686404822</v>
       </c>
       <c r="H40" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I40" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J40" t="n">
-        <v>111.6347488791189</v>
+        <v>111.634748879119</v>
       </c>
       <c r="K40" t="n">
-        <v>315.6219318279952</v>
+        <v>315.6219318279954</v>
       </c>
       <c r="L40" t="n">
         <v>632.1817302764914</v>
       </c>
       <c r="M40" t="n">
-        <v>976.3387758760404</v>
+        <v>976.3387758760405</v>
       </c>
       <c r="N40" t="n">
         <v>1317.747152581905</v>
@@ -7351,31 +7351,31 @@
         <v>1849.684251935978</v>
       </c>
       <c r="Q40" t="n">
-        <v>1927.294548088492</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="R40" t="n">
-        <v>1927.294548088492</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="S40" t="n">
-        <v>1834.280098489162</v>
+        <v>1834.280098489163</v>
       </c>
       <c r="T40" t="n">
-        <v>1711.184917632531</v>
+        <v>1711.184917632532</v>
       </c>
       <c r="U40" t="n">
-        <v>1520.753485332018</v>
+        <v>1520.753485332019</v>
       </c>
       <c r="V40" t="n">
-        <v>1364.740431699975</v>
+        <v>1322.10716072584</v>
       </c>
       <c r="W40" t="n">
-        <v>1173.994696236857</v>
+        <v>1032.68999068888</v>
       </c>
       <c r="X40" t="n">
-        <v>1044.676579912683</v>
+        <v>804.7004397908622</v>
       </c>
       <c r="Y40" t="n">
-        <v>922.5554353429964</v>
+        <v>583.9078606473321</v>
       </c>
     </row>
     <row r="41">
@@ -7385,28 +7385,28 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1711.141932470375</v>
+        <v>1711.141932470373</v>
       </c>
       <c r="C41" t="n">
-        <v>1440.850850103806</v>
+        <v>1440.850850103805</v>
       </c>
       <c r="D41" t="n">
-        <v>1181.256586070899</v>
+        <v>1181.256586070898</v>
       </c>
       <c r="E41" t="n">
-        <v>894.1397680464981</v>
+        <v>894.1397680464969</v>
       </c>
       <c r="F41" t="n">
-        <v>581.8252978307341</v>
+        <v>581.8252978307328</v>
       </c>
       <c r="G41" t="n">
-        <v>265.4242822495729</v>
+        <v>265.4242822495727</v>
       </c>
       <c r="H41" t="n">
-        <v>66.51211643218345</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="I41" t="n">
-        <v>66.51211643218345</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J41" t="n">
         <v>255.3912473912088</v>
@@ -7418,7 +7418,7 @@
         <v>1040.244834329464</v>
       </c>
       <c r="M41" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N41" t="n">
         <v>2120.555556060171</v>
@@ -7427,34 +7427,34 @@
         <v>2623.528026939508</v>
       </c>
       <c r="P41" t="n">
-        <v>3018.302393296685</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q41" t="n">
         <v>3266.588755052368</v>
       </c>
       <c r="R41" t="n">
-        <v>3325.605821609172</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S41" t="n">
-        <v>3313.986587710111</v>
+        <v>3313.986587710109</v>
       </c>
       <c r="T41" t="n">
-        <v>3206.680274668176</v>
+        <v>3206.680274668174</v>
       </c>
       <c r="U41" t="n">
-        <v>3051.821232515856</v>
+        <v>3051.821232515854</v>
       </c>
       <c r="V41" t="n">
-        <v>2819.429779746129</v>
+        <v>2819.429779746126</v>
       </c>
       <c r="W41" t="n">
-        <v>2565.332559049858</v>
+        <v>2565.332559049856</v>
       </c>
       <c r="X41" t="n">
-        <v>2290.538235362621</v>
+        <v>2290.53823536262</v>
       </c>
       <c r="Y41" t="n">
-        <v>1999.070337960653</v>
+        <v>1999.070337960651</v>
       </c>
     </row>
     <row r="42">
@@ -7464,37 +7464,37 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811085</v>
       </c>
       <c r="C42" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999815</v>
       </c>
       <c r="D42" t="n">
-        <v>618.1564155387305</v>
+        <v>618.1564155387302</v>
       </c>
       <c r="E42" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332748</v>
       </c>
       <c r="F42" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601598</v>
       </c>
       <c r="G42" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H42" t="n">
-        <v>85.51940803064551</v>
+        <v>85.51940803064542</v>
       </c>
       <c r="I42" t="n">
-        <v>66.51211643218345</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J42" t="n">
         <v>160.1893859228007</v>
       </c>
       <c r="K42" t="n">
-        <v>398.4535849031478</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L42" t="n">
-        <v>765.1517452158131</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M42" t="n">
         <v>1212.428070438129</v>
@@ -7521,7 +7521,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U42" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V42" t="n">
         <v>1779.608347199865</v>
@@ -7530,10 +7530,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X42" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y42" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="43">
@@ -7543,40 +7543,40 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>740.9069705127567</v>
+        <v>839.5784050866016</v>
       </c>
       <c r="C43" t="n">
-        <v>670.6422221586931</v>
+        <v>670.6422221586947</v>
       </c>
       <c r="D43" t="n">
-        <v>619.1970173202008</v>
+        <v>520.525582746359</v>
       </c>
       <c r="E43" t="n">
-        <v>569.955358311651</v>
+        <v>372.6124891639658</v>
       </c>
       <c r="F43" t="n">
-        <v>477.7578170212614</v>
+        <v>225.7225416660555</v>
       </c>
       <c r="G43" t="n">
-        <v>310.0549803959804</v>
+        <v>114.0578686404822</v>
       </c>
       <c r="H43" t="n">
-        <v>163.8377936138381</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="I43" t="n">
-        <v>66.51211643218345</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J43" t="n">
-        <v>111.634748879119</v>
+        <v>111.6347488791189</v>
       </c>
       <c r="K43" t="n">
-        <v>315.6219318279953</v>
+        <v>315.6219318279954</v>
       </c>
       <c r="L43" t="n">
         <v>632.1817302764914</v>
       </c>
       <c r="M43" t="n">
-        <v>976.3387758760404</v>
+        <v>976.3387758760405</v>
       </c>
       <c r="N43" t="n">
         <v>1317.747152581905</v>
@@ -7588,31 +7588,31 @@
         <v>1849.684251935978</v>
       </c>
       <c r="Q43" t="n">
-        <v>1927.294548088492</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="R43" t="n">
-        <v>1927.294548088492</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="S43" t="n">
-        <v>1834.280098489162</v>
+        <v>1834.280098489163</v>
       </c>
       <c r="T43" t="n">
-        <v>1711.184917632531</v>
+        <v>1711.184917632532</v>
       </c>
       <c r="U43" t="n">
-        <v>1422.082050758175</v>
+        <v>1520.753485332019</v>
       </c>
       <c r="V43" t="n">
-        <v>1266.068997126131</v>
+        <v>1364.740431699975</v>
       </c>
       <c r="W43" t="n">
-        <v>1075.323261663014</v>
+        <v>1173.994696236858</v>
       </c>
       <c r="X43" t="n">
-        <v>946.0051453388398</v>
+        <v>1044.676579912684</v>
       </c>
       <c r="Y43" t="n">
-        <v>823.8840007691531</v>
+        <v>922.5554353429978</v>
       </c>
     </row>
     <row r="44">
@@ -7625,19 +7625,19 @@
         <v>1711.141932470374</v>
       </c>
       <c r="C44" t="n">
-        <v>1440.850850103806</v>
+        <v>1440.850850103805</v>
       </c>
       <c r="D44" t="n">
-        <v>1181.256586070899</v>
+        <v>1181.256586070898</v>
       </c>
       <c r="E44" t="n">
-        <v>894.1397680464978</v>
+        <v>894.1397680464975</v>
       </c>
       <c r="F44" t="n">
-        <v>581.8252978307336</v>
+        <v>581.8252978307337</v>
       </c>
       <c r="G44" t="n">
-        <v>265.4242822495729</v>
+        <v>265.4242822495728</v>
       </c>
       <c r="H44" t="n">
         <v>66.51211643218343</v>
@@ -7646,31 +7646,31 @@
         <v>66.51211643218343</v>
       </c>
       <c r="J44" t="n">
-        <v>255.3912473912088</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K44" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810571</v>
       </c>
       <c r="L44" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329466</v>
       </c>
       <c r="M44" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.77673900139</v>
       </c>
       <c r="N44" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060173</v>
       </c>
       <c r="O44" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.52802693951</v>
       </c>
       <c r="P44" t="n">
-        <v>3018.302393296685</v>
+        <v>3018.302393296688</v>
       </c>
       <c r="Q44" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.58875505237</v>
       </c>
       <c r="R44" t="n">
-        <v>3325.605821609172</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S44" t="n">
         <v>3313.98658771011</v>
@@ -7679,19 +7679,19 @@
         <v>3206.680274668176</v>
       </c>
       <c r="U44" t="n">
-        <v>3051.821232515856</v>
+        <v>3051.821232515855</v>
       </c>
       <c r="V44" t="n">
-        <v>2819.429779746129</v>
+        <v>2819.429779746128</v>
       </c>
       <c r="W44" t="n">
-        <v>2565.332559049858</v>
+        <v>2565.332559049857</v>
       </c>
       <c r="X44" t="n">
-        <v>2290.538235362621</v>
+        <v>2290.53823536262</v>
       </c>
       <c r="Y44" t="n">
-        <v>1999.070337960653</v>
+        <v>1999.070337960652</v>
       </c>
     </row>
     <row r="45">
@@ -7701,37 +7701,37 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>941.5438544811075</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C45" t="n">
-        <v>767.0908251999805</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D45" t="n">
-        <v>618.1564155387292</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E45" t="n">
-        <v>458.9189605332737</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F45" t="n">
-        <v>312.3844025601587</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G45" t="n">
-        <v>176.0213023927768</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H45" t="n">
-        <v>85.51940803064433</v>
+        <v>85.51940803064548</v>
       </c>
       <c r="I45" t="n">
         <v>66.51211643218343</v>
       </c>
       <c r="J45" t="n">
-        <v>160.1893859228007</v>
+        <v>160.1893859228008</v>
       </c>
       <c r="K45" t="n">
-        <v>398.4535849031478</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L45" t="n">
-        <v>765.151745215813</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M45" t="n">
         <v>1212.428070438129</v>
@@ -7743,34 +7743,34 @@
         <v>2096.912393410638</v>
       </c>
       <c r="P45" t="n">
-        <v>2407.41198488674</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q45" t="n">
-        <v>2565.05354253334</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R45" t="n">
-        <v>2564.909189125855</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S45" t="n">
-        <v>2435.471302619335</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T45" t="n">
-        <v>2242.828302297191</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U45" t="n">
-        <v>2014.760455431606</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V45" t="n">
-        <v>1779.608347199864</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W45" t="n">
-        <v>1525.370990471662</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X45" t="n">
-        <v>1317.519490266129</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y45" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="46">
@@ -7780,25 +7780,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>453.7336441225984</v>
+        <v>696.9279421464337</v>
       </c>
       <c r="C46" t="n">
-        <v>383.4688957685348</v>
+        <v>626.6631937923702</v>
       </c>
       <c r="D46" t="n">
-        <v>332.0236909300424</v>
+        <v>575.2179889538779</v>
       </c>
       <c r="E46" t="n">
-        <v>282.7820319214927</v>
+        <v>525.9763299453282</v>
       </c>
       <c r="F46" t="n">
-        <v>234.5635189974256</v>
+        <v>477.7578170212613</v>
       </c>
       <c r="G46" t="n">
-        <v>114.0578686404823</v>
+        <v>310.0549803959803</v>
       </c>
       <c r="H46" t="n">
-        <v>66.51211643218343</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="I46" t="n">
         <v>66.51211643218343</v>
@@ -7807,13 +7807,13 @@
         <v>111.634748879119</v>
       </c>
       <c r="K46" t="n">
-        <v>315.6219318279953</v>
+        <v>315.6219318279954</v>
       </c>
       <c r="L46" t="n">
         <v>632.1817302764914</v>
       </c>
       <c r="M46" t="n">
-        <v>976.3387758760404</v>
+        <v>976.3387758760405</v>
       </c>
       <c r="N46" t="n">
         <v>1317.747152581905</v>
@@ -7825,31 +7825,31 @@
         <v>1849.684251935978</v>
       </c>
       <c r="Q46" t="n">
-        <v>1927.294548088492</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="R46" t="n">
-        <v>1837.46409084602</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="S46" t="n">
-        <v>1645.778206672847</v>
+        <v>1790.301070122838</v>
       </c>
       <c r="T46" t="n">
-        <v>1522.683025816216</v>
+        <v>1667.205889266208</v>
       </c>
       <c r="U46" t="n">
-        <v>1233.58015894186</v>
+        <v>1476.774456965695</v>
       </c>
       <c r="V46" t="n">
-        <v>978.8956707359729</v>
+        <v>1320.761403333651</v>
       </c>
       <c r="W46" t="n">
-        <v>788.1499352728556</v>
+        <v>1031.34423329669</v>
       </c>
       <c r="X46" t="n">
-        <v>658.8318189486815</v>
+        <v>902.0261169725165</v>
       </c>
       <c r="Y46" t="n">
-        <v>536.7106743789948</v>
+        <v>779.9049724028299</v>
       </c>
     </row>
   </sheetData>
@@ -8450,28 +8450,28 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>157.2353108430644</v>
+        <v>157.2353108430629</v>
       </c>
       <c r="K8" t="n">
-        <v>184.4039433729027</v>
+        <v>184.4039433729004</v>
       </c>
       <c r="L8" t="n">
-        <v>191.4948909389628</v>
+        <v>191.49489093896</v>
       </c>
       <c r="M8" t="n">
-        <v>181.0856325333094</v>
+        <v>181.0856325333063</v>
       </c>
       <c r="N8" t="n">
-        <v>179.3553748830268</v>
+        <v>179.3553748830236</v>
       </c>
       <c r="O8" t="n">
-        <v>182.8301554384016</v>
+        <v>182.8301554383986</v>
       </c>
       <c r="P8" t="n">
-        <v>190.8908035586607</v>
+        <v>190.8908035586581</v>
       </c>
       <c r="Q8" t="n">
-        <v>192.010383626614</v>
+        <v>192.0103836266121</v>
       </c>
       <c r="R8" t="n">
         <v>65.71641987298243</v>
@@ -8529,28 +8529,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>112.6562001875982</v>
+        <v>112.6562001875973</v>
       </c>
       <c r="K9" t="n">
-        <v>113.6031223372546</v>
+        <v>113.6031223372531</v>
       </c>
       <c r="L9" t="n">
-        <v>105.9629718672291</v>
+        <v>105.9629718672271</v>
       </c>
       <c r="M9" t="n">
-        <v>104.1013981253613</v>
+        <v>104.1013981253589</v>
       </c>
       <c r="N9" t="n">
-        <v>92.30246558677862</v>
+        <v>92.30246558677618</v>
       </c>
       <c r="O9" t="n">
-        <v>106.8829608359755</v>
+        <v>106.8829608359732</v>
       </c>
       <c r="P9" t="n">
-        <v>105.3113487798339</v>
+        <v>105.3113487798321</v>
       </c>
       <c r="Q9" t="n">
-        <v>120.8212784615468</v>
+        <v>120.8212784615456</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8614,19 +8614,19 @@
         <v>106.7437663446525</v>
       </c>
       <c r="L10" t="n">
-        <v>116.1755252564668</v>
+        <v>116.1755252564656</v>
       </c>
       <c r="M10" t="n">
-        <v>119.1996074085238</v>
+        <v>119.1996074085226</v>
       </c>
       <c r="N10" t="n">
-        <v>108.4284123140788</v>
+        <v>108.4284123140776</v>
       </c>
       <c r="O10" t="n">
-        <v>120.6694600530934</v>
+        <v>120.6694600530923</v>
       </c>
       <c r="P10" t="n">
-        <v>122.5080856662713</v>
+        <v>122.5080856662703</v>
       </c>
       <c r="Q10" t="n">
         <v>65.34295837775146</v>
@@ -8790,7 +8790,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>-9.481304630298837e-13</v>
+        <v>1.388111847688833e-12</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -9027,7 +9027,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>-9.481304630298837e-13</v>
+        <v>9.094947017729282e-13</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9650,10 +9650,10 @@
         <v>0</v>
       </c>
       <c r="O23" t="n">
-        <v>339.8144253784342</v>
+        <v>18.01571720695176</v>
       </c>
       <c r="P23" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q23" t="n">
         <v>0</v>
@@ -9738,7 +9738,7 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>9.094947017729282e-13</v>
+        <v>-4.695133171139787e-13</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9872,7 +9872,7 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>0</v>
+        <v>62.52018570663893</v>
       </c>
       <c r="K26" t="n">
         <v>0</v>
@@ -9881,10 +9881,10 @@
         <v>0</v>
       </c>
       <c r="M26" t="n">
-        <v>287.001785447392</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N26" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O26" t="n">
         <v>0</v>
@@ -9893,7 +9893,7 @@
         <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R26" t="n">
         <v>0</v>
@@ -9948,7 +9948,7 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>8.384404281969182e-13</v>
+        <v>0</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -10112,7 +10112,7 @@
         <v>0</v>
       </c>
       <c r="K29" t="n">
-        <v>190.2350110279885</v>
+        <v>21.74982042514699</v>
       </c>
       <c r="L29" t="n">
         <v>0</v>
@@ -10124,13 +10124,13 @@
         <v>0</v>
       </c>
       <c r="O29" t="n">
-        <v>0</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P29" t="n">
         <v>321.7987081714826</v>
       </c>
       <c r="Q29" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R29" t="n">
         <v>0</v>
@@ -10346,10 +10346,10 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>169.0966151720738</v>
+        <v>131.2335379367249</v>
       </c>
       <c r="K32" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L32" t="n">
         <v>0</v>
@@ -10361,13 +10361,13 @@
         <v>0</v>
       </c>
       <c r="O32" t="n">
-        <v>0</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P32" t="n">
-        <v>231.1066821161376</v>
+        <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R32" t="n">
         <v>0</v>
@@ -10607,7 +10607,7 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>1.449507180950604e-12</v>
+        <v>0</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10896,7 +10896,7 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>1.147526518252562e-12</v>
+        <v>2.167155344068306e-13</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -11081,7 +11081,7 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>2.366107310081134e-12</v>
+        <v>-1.364242052659392e-12</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11370,7 +11370,7 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>1.161737372967764e-12</v>
+        <v>0</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -23033,7 +23033,7 @@
         <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>15.02219619719373</v>
+        <v>15.02219619719371</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -23267,13 +23267,13 @@
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>379.955899154585</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>205.2100565937117</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -23309,7 +23309,7 @@
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>176.9978235524937</v>
       </c>
       <c r="U11" t="n">
         <v>0</v>
@@ -23318,13 +23318,13 @@
         <v>300.8321118830085</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>322.3208221302866</v>
       </c>
       <c r="X11" t="n">
         <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>324.5728031219047</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -23416,13 +23416,13 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>60.26541443681469</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>121.6953264310859</v>
       </c>
       <c r="E13" t="n">
-        <v>119.5138160594428</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>118.5009014358048</v>
@@ -23431,10 +23431,10 @@
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>117.8348683271944</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>69.43227382271164</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23461,7 +23461,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>62.01200608292092</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -23479,7 +23479,7 @@
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>168.4985046525748</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -23495,16 +23495,16 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>338.3527451838811</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>327.7628950335565</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>339.2451739420624</v>
       </c>
       <c r="F14" t="n">
-        <v>379.955899154585</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
@@ -23513,7 +23513,7 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>14.65678318579953</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23546,7 +23546,7 @@
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>176.9978235524937</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
         <v>0</v>
@@ -23555,13 +23555,13 @@
         <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>74.43251619769396</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
         <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>359.3177920689272</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -23650,16 +23650,16 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>105.4735839460162</v>
+        <v>152.9118335948108</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>121.695326431086</v>
+        <v>99.99767601066526</v>
       </c>
       <c r="E16" t="n">
-        <v>119.5138160594428</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
@@ -23671,7 +23671,7 @@
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>69.43227382271169</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,7 +23698,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>62.01200608292092</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -23710,7 +23710,7 @@
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>225.2174967367015</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
@@ -23747,7 +23747,7 @@
         <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>167.7369527970452</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -23780,16 +23780,16 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>35.29247858245679</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>130.0226869339011</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
         <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>0</v>
+        <v>20.70946286306764</v>
       </c>
       <c r="W17" t="n">
         <v>0</v>
@@ -23798,7 +23798,7 @@
         <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>0</v>
+        <v>312.3426554503346</v>
       </c>
     </row>
     <row r="18">
@@ -23978,13 +23978,13 @@
         <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>112.3396371318011</v>
       </c>
       <c r="G20" t="n">
-        <v>57.70643280170807</v>
+        <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>220.7124811816014</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -24029,7 +24029,7 @@
         <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>275.345685511694</v>
+        <v>0</v>
       </c>
       <c r="X20" t="n">
         <v>0</v>
@@ -26139,7 +26139,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>1245638.517783474</v>
+        <v>1245638.517783472</v>
       </c>
     </row>
     <row r="5">
@@ -26314,16 +26314,16 @@
         <v>286746.7185509634</v>
       </c>
       <c r="C2" t="n">
-        <v>286746.7185509634</v>
+        <v>286746.7185509635</v>
       </c>
       <c r="D2" t="n">
-        <v>286754.5344320814</v>
+        <v>286754.5344320813</v>
       </c>
       <c r="E2" t="n">
-        <v>255339.0003167415</v>
+        <v>255339.0003167414</v>
       </c>
       <c r="F2" t="n">
-        <v>255339.0003167415</v>
+        <v>255339.0003167414</v>
       </c>
       <c r="G2" t="n">
         <v>278085.7874362881</v>
@@ -26332,13 +26332,13 @@
         <v>278085.7874362878</v>
       </c>
       <c r="I2" t="n">
-        <v>287364.6194524991</v>
+        <v>287364.6194524993</v>
       </c>
       <c r="J2" t="n">
+        <v>287364.6194524994</v>
+      </c>
+      <c r="K2" t="n">
         <v>287364.6194524996</v>
-      </c>
-      <c r="K2" t="n">
-        <v>287364.6194524995</v>
       </c>
       <c r="L2" t="n">
         <v>287364.6194524994</v>
@@ -26347,13 +26347,13 @@
         <v>287364.619452499</v>
       </c>
       <c r="N2" t="n">
-        <v>287364.6194524991</v>
+        <v>287364.6194524994</v>
       </c>
       <c r="O2" t="n">
         <v>287364.6194524991</v>
       </c>
       <c r="P2" t="n">
-        <v>287364.6194524991</v>
+        <v>287364.6194524993</v>
       </c>
     </row>
     <row r="3">
@@ -26369,25 +26369,25 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>59764.55367551965</v>
+        <v>59764.5536755234</v>
       </c>
       <c r="E3" t="n">
-        <v>1089238.972163635</v>
+        <v>1089238.972163631</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>1.797263848857256e-10</v>
       </c>
       <c r="G3" t="n">
-        <v>37580.10929487392</v>
+        <v>37580.10929487421</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>1.741016149026109e-10</v>
       </c>
       <c r="I3" t="n">
-        <v>22821.4678298334</v>
+        <v>22821.46782983363</v>
       </c>
       <c r="J3" t="n">
-        <v>25409.43302179698</v>
+        <v>25409.43302179701</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26396,16 +26396,16 @@
         <v>37580.10929487405</v>
       </c>
       <c r="M3" t="n">
-        <v>202168.0999927243</v>
+        <v>202168.0999927242</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-11</v>
       </c>
       <c r="O3" t="n">
-        <v>1.094354047381785e-10</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>1.074904503184371e-10</v>
       </c>
     </row>
     <row r="4">
@@ -26421,43 +26421,43 @@
         <v>463150.7311021098</v>
       </c>
       <c r="D4" t="n">
-        <v>439568.9169913888</v>
+        <v>439568.9169913873</v>
       </c>
       <c r="E4" t="n">
-        <v>41244.04987367431</v>
+        <v>41244.04987367443</v>
       </c>
       <c r="F4" t="n">
-        <v>41244.04987367431</v>
+        <v>41244.0498736744</v>
       </c>
       <c r="G4" t="n">
         <v>78272.2102351166</v>
       </c>
       <c r="H4" t="n">
-        <v>78272.2102351166</v>
+        <v>78272.21023511661</v>
       </c>
       <c r="I4" t="n">
-        <v>93189.85962057467</v>
+        <v>93189.85962057463</v>
       </c>
       <c r="J4" t="n">
-        <v>93063.75099226083</v>
+        <v>93063.75099226076</v>
       </c>
       <c r="K4" t="n">
-        <v>93063.7509922608</v>
+        <v>93063.7509922607</v>
       </c>
       <c r="L4" t="n">
-        <v>93063.75099226076</v>
+        <v>93063.7509922607</v>
       </c>
       <c r="M4" t="n">
-        <v>93403.78684820636</v>
+        <v>93403.78684820631</v>
       </c>
       <c r="N4" t="n">
-        <v>93403.78684820632</v>
+        <v>93403.78684820633</v>
       </c>
       <c r="O4" t="n">
-        <v>93403.78684820639</v>
+        <v>93403.78684820629</v>
       </c>
       <c r="P4" t="n">
-        <v>93403.78684820631</v>
+        <v>93403.78684820635</v>
       </c>
     </row>
     <row r="5">
@@ -26473,13 +26473,13 @@
         <v>33627.6</v>
       </c>
       <c r="D5" t="n">
-        <v>35148.90543186628</v>
+        <v>35148.90543186638</v>
       </c>
       <c r="E5" t="n">
-        <v>76569.49036482644</v>
+        <v>76569.4903648264</v>
       </c>
       <c r="F5" t="n">
-        <v>76569.49036482644</v>
+        <v>76569.4903648264</v>
       </c>
       <c r="G5" t="n">
         <v>80518.64312521491</v>
@@ -26488,25 +26488,25 @@
         <v>80518.64312521491</v>
       </c>
       <c r="I5" t="n">
-        <v>85736.52830184209</v>
+        <v>85736.5283018421</v>
       </c>
       <c r="J5" t="n">
-        <v>89377.94167480612</v>
+        <v>89377.94167480613</v>
       </c>
       <c r="K5" t="n">
         <v>89377.94167480612</v>
       </c>
       <c r="L5" t="n">
-        <v>89377.9416748061</v>
+        <v>89377.94167480612</v>
       </c>
       <c r="M5" t="n">
         <v>82518.59730624985</v>
       </c>
       <c r="N5" t="n">
+        <v>82518.59730624987</v>
+      </c>
+      <c r="O5" t="n">
         <v>82518.59730624984</v>
-      </c>
-      <c r="O5" t="n">
-        <v>82518.59730624987</v>
       </c>
       <c r="P5" t="n">
         <v>82518.59730624987</v>
@@ -26519,46 +26519,46 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-210031.6125511464</v>
+        <v>-210036.0261290144</v>
       </c>
       <c r="C6" t="n">
-        <v>-210031.6125511464</v>
+        <v>-210036.0261290144</v>
       </c>
       <c r="D6" t="n">
-        <v>-247727.8416666933</v>
+        <v>-247732.1994168416</v>
       </c>
       <c r="E6" t="n">
-        <v>-951713.5120853946</v>
+        <v>-951942.2665077886</v>
       </c>
       <c r="F6" t="n">
-        <v>137525.4600782407</v>
+        <v>137296.7056558421</v>
       </c>
       <c r="G6" t="n">
-        <v>81714.82478108266</v>
+        <v>81648.54740953801</v>
       </c>
       <c r="H6" t="n">
-        <v>119294.9340759563</v>
+        <v>119228.6567044118</v>
       </c>
       <c r="I6" t="n">
-        <v>85616.76370024898</v>
+        <v>85616.76370024891</v>
       </c>
       <c r="J6" t="n">
-        <v>79513.49376363569</v>
+        <v>79513.49376363553</v>
       </c>
       <c r="K6" t="n">
-        <v>104922.9267854326</v>
+        <v>104922.9267854328</v>
       </c>
       <c r="L6" t="n">
-        <v>67342.81749055847</v>
+        <v>67342.81749055852</v>
       </c>
       <c r="M6" t="n">
-        <v>-90725.8646946815</v>
+        <v>-90725.8646946813</v>
       </c>
       <c r="N6" t="n">
-        <v>111442.2352980429</v>
+        <v>111442.2352980431</v>
       </c>
       <c r="O6" t="n">
-        <v>111442.2352980428</v>
+        <v>111442.235298043</v>
       </c>
       <c r="P6" t="n">
         <v>111442.2352980429</v>
@@ -26692,10 +26692,10 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>26.9201465871264</v>
+        <v>26.92014658712647</v>
       </c>
       <c r="F2" t="n">
-        <v>26.9201465871264</v>
+        <v>26.92014658712645</v>
       </c>
       <c r="G2" t="n">
         <v>73.89528320571902</v>
@@ -26707,25 +26707,25 @@
         <v>73.89528320571902</v>
       </c>
       <c r="J2" t="n">
-        <v>46.97513661859262</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="K2" t="n">
-        <v>46.97513661859262</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="L2" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="M2" t="n">
-        <v>97.68472022810489</v>
+        <v>97.68472022810491</v>
       </c>
       <c r="N2" t="n">
-        <v>97.68472022810489</v>
+        <v>97.68472022810496</v>
       </c>
       <c r="O2" t="n">
-        <v>97.68472022810489</v>
+        <v>97.68472022810499</v>
       </c>
       <c r="P2" t="n">
-        <v>97.68472022810489</v>
+        <v>97.68472022810499</v>
       </c>
     </row>
     <row r="3">
@@ -26741,13 +26741,13 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>69.78465283790275</v>
+        <v>69.78465283790713</v>
       </c>
       <c r="E3" t="n">
-        <v>1089.776700593299</v>
+        <v>1089.776700593298</v>
       </c>
       <c r="F3" t="n">
-        <v>1089.776700593299</v>
+        <v>1089.776700593298</v>
       </c>
       <c r="G3" t="n">
         <v>1089.776700593298</v>
@@ -26796,40 +26796,40 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
+        <v>831.4014554022923</v>
+      </c>
+      <c r="F4" t="n">
+        <v>831.4014554022923</v>
+      </c>
+      <c r="G4" t="n">
         <v>831.4014554022929</v>
-      </c>
-      <c r="F4" t="n">
-        <v>831.4014554022928</v>
-      </c>
-      <c r="G4" t="n">
-        <v>831.4014554022928</v>
       </c>
       <c r="H4" t="n">
         <v>831.4014554022929</v>
       </c>
       <c r="I4" t="n">
-        <v>917.2219352810297</v>
+        <v>917.2219352810299</v>
       </c>
       <c r="J4" t="n">
-        <v>1014.336461208614</v>
+        <v>1014.336461208615</v>
       </c>
       <c r="K4" t="n">
-        <v>1014.336461208614</v>
+        <v>1014.336461208615</v>
       </c>
       <c r="L4" t="n">
-        <v>1014.336461208614</v>
+        <v>1014.336461208615</v>
       </c>
       <c r="M4" t="n">
         <v>831.4014554022929</v>
       </c>
       <c r="N4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="O4" t="n">
-        <v>831.4014554022931</v>
+        <v>831.4014554022924</v>
       </c>
       <c r="P4" t="n">
-        <v>831.401455402293</v>
+        <v>831.4014554022929</v>
       </c>
     </row>
   </sheetData>
@@ -26914,13 +26914,13 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>26.9201465871264</v>
+        <v>26.92014658712647</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>46.97513661859262</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -26938,10 +26938,10 @@
         <v>46.97513661859256</v>
       </c>
       <c r="M2" t="n">
-        <v>50.70958360951234</v>
+        <v>50.70958360951237</v>
       </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>5.684341886080801e-14</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
@@ -26963,19 +26963,19 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>69.78465283790275</v>
+        <v>69.78465283790713</v>
       </c>
       <c r="E3" t="n">
-        <v>1019.992047755396</v>
+        <v>1019.992047755391</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -27018,22 +27018,22 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022923</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>5.684341886080801e-13</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>85.82047987873682</v>
+        <v>85.82047987873705</v>
       </c>
       <c r="J4" t="n">
-        <v>97.11452592758474</v>
+        <v>97.11452592758485</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,16 +27042,16 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>648.4664495959713</v>
+        <v>648.4664495959706</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
       </c>
       <c r="O4" t="n">
+        <v>0</v>
+      </c>
+      <c r="P4" t="n">
         <v>4.547473508864641e-13</v>
-      </c>
-      <c r="P4" t="n">
-        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -27151,13 +27151,13 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>26.9201465871264</v>
+        <v>26.92014658712647</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>46.97513661859262</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -27264,13 +27264,13 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022923</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>0</v>
+        <v>5.684341886080801e-13</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27868,10 +27868,10 @@
         <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>336.6017083434006</v>
+        <v>336.6017083434004</v>
       </c>
       <c r="I8" t="n">
-        <v>199.6603204104733</v>
+        <v>199.6603204104726</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27898,10 +27898,10 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>132.2465643780184</v>
+        <v>132.2465643780173</v>
       </c>
       <c r="S8" t="n">
-        <v>202.6272343036576</v>
+        <v>202.6272343036572</v>
       </c>
       <c r="T8" t="n">
         <v>221.8677799448432</v>
@@ -27947,10 +27947,10 @@
         <v>137.193414325031</v>
       </c>
       <c r="H9" t="n">
-        <v>110.7857668256563</v>
+        <v>110.7857668256562</v>
       </c>
       <c r="I9" t="n">
-        <v>84.22861846672133</v>
+        <v>84.22861846672102</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -27977,10 +27977,10 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>90.83829126987567</v>
+        <v>90.83829126987507</v>
       </c>
       <c r="S9" t="n">
-        <v>168.8950767192292</v>
+        <v>168.895076719229</v>
       </c>
       <c r="T9" t="n">
         <v>199.5597089216326</v>
@@ -28026,16 +28026,16 @@
         <v>167.8651381812101</v>
       </c>
       <c r="H10" t="n">
-        <v>161.1083300406286</v>
+        <v>161.1083300406285</v>
       </c>
       <c r="I10" t="n">
-        <v>151.6660875241799</v>
+        <v>151.6660875241797</v>
       </c>
       <c r="J10" t="n">
-        <v>84.4622088851913</v>
+        <v>84.46220888519075</v>
       </c>
       <c r="K10" t="n">
-        <v>7.649035050991099</v>
+        <v>7.649035050990182</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -28053,16 +28053,16 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>75.62456067317108</v>
+        <v>75.62456067317041</v>
       </c>
       <c r="R10" t="n">
-        <v>171.6351144437881</v>
+        <v>171.6351144437877</v>
       </c>
       <c r="S10" t="n">
-        <v>221.8235295207385</v>
+        <v>221.8235295207384</v>
       </c>
       <c r="T10" t="n">
-        <v>227.407904398219</v>
+        <v>227.4079043982189</v>
       </c>
       <c r="U10" t="n">
         <v>286.3121652922773</v>
@@ -28087,28 +28087,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>26.9201465871264</v>
+        <v>26.92014658712647</v>
       </c>
       <c r="C11" t="n">
-        <v>26.9201465871264</v>
+        <v>26.92014658712647</v>
       </c>
       <c r="D11" t="n">
-        <v>26.9201465871264</v>
+        <v>26.92014658712647</v>
       </c>
       <c r="E11" t="n">
-        <v>26.9201465871264</v>
+        <v>26.92014658712647</v>
       </c>
       <c r="F11" t="n">
-        <v>26.9201465871264</v>
+        <v>26.92014658712647</v>
       </c>
       <c r="G11" t="n">
-        <v>26.9201465871264</v>
+        <v>26.92014658712647</v>
       </c>
       <c r="H11" t="n">
-        <v>26.9201465871264</v>
+        <v>26.92014658712647</v>
       </c>
       <c r="I11" t="n">
-        <v>26.9201465871264</v>
+        <v>26.92014658712647</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -28138,25 +28138,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>26.9201465871264</v>
+        <v>26.92014658712647</v>
       </c>
       <c r="T11" t="n">
-        <v>26.9201465871264</v>
+        <v>26.92014658712647</v>
       </c>
       <c r="U11" t="n">
-        <v>26.9201465871264</v>
+        <v>26.92014658712647</v>
       </c>
       <c r="V11" t="n">
-        <v>26.9201465871264</v>
+        <v>26.92014658712647</v>
       </c>
       <c r="W11" t="n">
-        <v>26.9201465871264</v>
+        <v>26.92014658712647</v>
       </c>
       <c r="X11" t="n">
-        <v>26.9201465871264</v>
+        <v>26.92014658712647</v>
       </c>
       <c r="Y11" t="n">
-        <v>26.9201465871264</v>
+        <v>26.92014658712647</v>
       </c>
     </row>
     <row r="12">
@@ -28245,76 +28245,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>26.9201465871264</v>
+        <v>26.92014658712647</v>
       </c>
       <c r="C13" t="n">
-        <v>26.9201465871264</v>
+        <v>26.92014658712647</v>
       </c>
       <c r="D13" t="n">
-        <v>26.9201465871264</v>
+        <v>26.92014658712647</v>
       </c>
       <c r="E13" t="n">
-        <v>26.9201465871264</v>
+        <v>26.92014658712647</v>
       </c>
       <c r="F13" t="n">
-        <v>26.9201465871264</v>
+        <v>26.92014658712647</v>
       </c>
       <c r="G13" t="n">
-        <v>26.9201465871264</v>
+        <v>26.92014658712647</v>
       </c>
       <c r="H13" t="n">
-        <v>26.9201465871264</v>
+        <v>26.92014658712647</v>
       </c>
       <c r="I13" t="n">
-        <v>26.9201465871264</v>
+        <v>26.92014658712647</v>
       </c>
       <c r="J13" t="n">
-        <v>26.9201465871264</v>
+        <v>26.92014658712647</v>
       </c>
       <c r="K13" t="n">
-        <v>26.9201465871264</v>
+        <v>26.92014658712647</v>
       </c>
       <c r="L13" t="n">
-        <v>26.9201465871264</v>
+        <v>26.92014658712647</v>
       </c>
       <c r="M13" t="n">
-        <v>26.9201465871264</v>
+        <v>26.92014658712647</v>
       </c>
       <c r="N13" t="n">
-        <v>26.9201465871264</v>
+        <v>26.92014658712647</v>
       </c>
       <c r="O13" t="n">
-        <v>26.9201465871264</v>
+        <v>26.92014658712647</v>
       </c>
       <c r="P13" t="n">
-        <v>26.9201465871264</v>
+        <v>26.92014658712647</v>
       </c>
       <c r="Q13" t="n">
-        <v>26.9201465871264</v>
+        <v>26.92014658712647</v>
       </c>
       <c r="R13" t="n">
-        <v>26.9201465871264</v>
+        <v>26.92014658712647</v>
       </c>
       <c r="S13" t="n">
-        <v>26.9201465871264</v>
+        <v>26.92014658712647</v>
       </c>
       <c r="T13" t="n">
-        <v>26.9201465871264</v>
+        <v>26.92014658712647</v>
       </c>
       <c r="U13" t="n">
-        <v>26.9201465871264</v>
+        <v>26.92014658712647</v>
       </c>
       <c r="V13" t="n">
-        <v>26.9201465871264</v>
+        <v>26.92014658712647</v>
       </c>
       <c r="W13" t="n">
-        <v>26.9201465871264</v>
+        <v>26.92014658712647</v>
       </c>
       <c r="X13" t="n">
-        <v>26.9201465871264</v>
+        <v>26.92014658712647</v>
       </c>
       <c r="Y13" t="n">
-        <v>26.9201465871264</v>
+        <v>26.92014658712647</v>
       </c>
     </row>
     <row r="14">
@@ -28324,28 +28324,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>26.9201465871264</v>
+        <v>26.92014658712645</v>
       </c>
       <c r="C14" t="n">
-        <v>26.9201465871264</v>
+        <v>26.92014658712645</v>
       </c>
       <c r="D14" t="n">
-        <v>26.9201465871264</v>
+        <v>26.92014658712645</v>
       </c>
       <c r="E14" t="n">
-        <v>26.9201465871264</v>
+        <v>26.92014658712645</v>
       </c>
       <c r="F14" t="n">
-        <v>26.9201465871264</v>
+        <v>26.92014658712645</v>
       </c>
       <c r="G14" t="n">
-        <v>26.9201465871264</v>
+        <v>26.92014658712645</v>
       </c>
       <c r="H14" t="n">
-        <v>26.9201465871264</v>
+        <v>26.92014658712645</v>
       </c>
       <c r="I14" t="n">
-        <v>26.9201465871264</v>
+        <v>26.92014658712645</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -28375,25 +28375,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>26.9201465871264</v>
+        <v>26.92014658712645</v>
       </c>
       <c r="T14" t="n">
-        <v>26.9201465871264</v>
+        <v>26.92014658712645</v>
       </c>
       <c r="U14" t="n">
-        <v>26.9201465871264</v>
+        <v>26.92014658712645</v>
       </c>
       <c r="V14" t="n">
-        <v>26.9201465871264</v>
+        <v>26.92014658712645</v>
       </c>
       <c r="W14" t="n">
-        <v>26.9201465871264</v>
+        <v>26.92014658712645</v>
       </c>
       <c r="X14" t="n">
-        <v>26.9201465871264</v>
+        <v>26.92014658712645</v>
       </c>
       <c r="Y14" t="n">
-        <v>26.9201465871264</v>
+        <v>26.92014658712645</v>
       </c>
     </row>
     <row r="15">
@@ -28482,76 +28482,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>26.9201465871264</v>
+        <v>26.92014658712645</v>
       </c>
       <c r="C16" t="n">
-        <v>26.9201465871264</v>
+        <v>26.92014658712645</v>
       </c>
       <c r="D16" t="n">
-        <v>26.9201465871264</v>
+        <v>26.92014658712645</v>
       </c>
       <c r="E16" t="n">
-        <v>26.9201465871264</v>
+        <v>26.92014658712645</v>
       </c>
       <c r="F16" t="n">
-        <v>26.9201465871264</v>
+        <v>26.92014658712645</v>
       </c>
       <c r="G16" t="n">
-        <v>26.9201465871264</v>
+        <v>26.92014658712645</v>
       </c>
       <c r="H16" t="n">
-        <v>26.9201465871264</v>
+        <v>26.92014658712645</v>
       </c>
       <c r="I16" t="n">
-        <v>26.9201465871264</v>
+        <v>26.92014658712645</v>
       </c>
       <c r="J16" t="n">
-        <v>26.9201465871264</v>
+        <v>26.92014658712645</v>
       </c>
       <c r="K16" t="n">
-        <v>26.9201465871264</v>
+        <v>26.92014658712645</v>
       </c>
       <c r="L16" t="n">
-        <v>26.9201465871264</v>
+        <v>26.92014658712645</v>
       </c>
       <c r="M16" t="n">
-        <v>26.9201465871264</v>
+        <v>26.92014658712645</v>
       </c>
       <c r="N16" t="n">
-        <v>26.9201465871264</v>
+        <v>26.92014658712645</v>
       </c>
       <c r="O16" t="n">
-        <v>26.9201465871264</v>
+        <v>26.92014658712645</v>
       </c>
       <c r="P16" t="n">
-        <v>26.9201465871264</v>
+        <v>26.92014658712645</v>
       </c>
       <c r="Q16" t="n">
-        <v>26.9201465871264</v>
+        <v>26.92014658712645</v>
       </c>
       <c r="R16" t="n">
-        <v>26.9201465871264</v>
+        <v>26.92014658712645</v>
       </c>
       <c r="S16" t="n">
-        <v>26.9201465871264</v>
+        <v>26.92014658712645</v>
       </c>
       <c r="T16" t="n">
-        <v>26.9201465871264</v>
+        <v>26.92014658712645</v>
       </c>
       <c r="U16" t="n">
-        <v>26.9201465871264</v>
+        <v>26.92014658712645</v>
       </c>
       <c r="V16" t="n">
-        <v>26.9201465871264</v>
+        <v>26.92014658712645</v>
       </c>
       <c r="W16" t="n">
-        <v>26.9201465871264</v>
+        <v>26.92014658712645</v>
       </c>
       <c r="X16" t="n">
-        <v>26.9201465871264</v>
+        <v>26.92014658712645</v>
       </c>
       <c r="Y16" t="n">
-        <v>26.9201465871264</v>
+        <v>26.92014658712645</v>
       </c>
     </row>
     <row r="17">
@@ -28722,7 +28722,7 @@
         <v>73.89528320571902</v>
       </c>
       <c r="C19" t="n">
-        <v>73.89528320571902</v>
+        <v>11.49558901075588</v>
       </c>
       <c r="D19" t="n">
         <v>73.89528320571902</v>
@@ -28782,7 +28782,7 @@
         <v>73.89528320571902</v>
       </c>
       <c r="W19" t="n">
-        <v>11.49558901075574</v>
+        <v>73.89528320571902</v>
       </c>
       <c r="X19" t="n">
         <v>73.89528320571902</v>
@@ -29010,13 +29010,13 @@
         <v>73.89528320571902</v>
       </c>
       <c r="T22" t="n">
-        <v>11.49558901075591</v>
+        <v>73.89528320571902</v>
       </c>
       <c r="U22" t="n">
         <v>73.89528320571902</v>
       </c>
       <c r="V22" t="n">
-        <v>73.89528320571902</v>
+        <v>11.49558901075596</v>
       </c>
       <c r="W22" t="n">
         <v>73.89528320571902</v>
@@ -29056,7 +29056,7 @@
         <v>73.89528320571902</v>
       </c>
       <c r="I23" t="n">
-        <v>41.57692977292598</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -29241,10 +29241,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
+        <v>11.49558901075586</v>
+      </c>
+      <c r="S25" t="n">
         <v>73.89528320571902</v>
-      </c>
-      <c r="S25" t="n">
-        <v>11.49558901075622</v>
       </c>
       <c r="T25" t="n">
         <v>73.89528320571902</v>
@@ -29272,28 +29272,28 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>46.97513661859262</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="C26" t="n">
-        <v>46.97513661859262</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="D26" t="n">
-        <v>46.97513661859262</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="E26" t="n">
-        <v>46.97513661859262</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="F26" t="n">
-        <v>46.97513661859262</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="G26" t="n">
-        <v>46.97513661859262</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="H26" t="n">
-        <v>46.97513661859262</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="I26" t="n">
-        <v>41.57692977292598</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -29323,25 +29323,25 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>46.97513661859262</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="T26" t="n">
-        <v>46.97513661859262</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="U26" t="n">
-        <v>46.97513661859262</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="V26" t="n">
-        <v>46.97513661859262</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="W26" t="n">
-        <v>46.97513661859262</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="X26" t="n">
-        <v>46.97513661859262</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="Y26" t="n">
-        <v>46.97513661859262</v>
+        <v>46.97513661859255</v>
       </c>
     </row>
     <row r="27">
@@ -29430,76 +29430,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>46.97513661859262</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="C28" t="n">
-        <v>46.97513661859262</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="D28" t="n">
-        <v>46.97513661859262</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="E28" t="n">
-        <v>46.97513661859262</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="F28" t="n">
-        <v>46.97513661859262</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="G28" t="n">
-        <v>46.97513661859262</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="H28" t="n">
-        <v>46.97513661859262</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="I28" t="n">
-        <v>46.97513661859262</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="J28" t="n">
-        <v>46.97513661859262</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="K28" t="n">
-        <v>46.97513661859262</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="L28" t="n">
-        <v>46.97513661859262</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="M28" t="n">
-        <v>46.97513661859262</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="N28" t="n">
-        <v>46.97513661859262</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="O28" t="n">
-        <v>46.97513661859262</v>
+        <v>46.97513661859233</v>
       </c>
       <c r="P28" t="n">
-        <v>46.97513661859262</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="Q28" t="n">
-        <v>46.97513661859122</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="R28" t="n">
-        <v>46.97513661859262</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="S28" t="n">
-        <v>46.97513661859262</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="T28" t="n">
-        <v>46.97513661859262</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="U28" t="n">
-        <v>46.97513661859262</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="V28" t="n">
-        <v>46.97513661859262</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="W28" t="n">
-        <v>46.97513661859262</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="X28" t="n">
-        <v>46.97513661859262</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="Y28" t="n">
-        <v>46.97513661859262</v>
+        <v>46.97513661859255</v>
       </c>
     </row>
     <row r="29">
@@ -29509,28 +29509,28 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>46.97513661859262</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="C29" t="n">
-        <v>46.97513661859262</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="D29" t="n">
-        <v>46.97513661859262</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="E29" t="n">
-        <v>46.97513661859262</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="F29" t="n">
-        <v>46.97513661859262</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="G29" t="n">
-        <v>46.97513661859262</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="H29" t="n">
-        <v>46.97513661859262</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="I29" t="n">
-        <v>41.57692977292598</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -29560,25 +29560,25 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>46.97513661859262</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="T29" t="n">
-        <v>46.97513661859262</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="U29" t="n">
-        <v>46.97513661859262</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="V29" t="n">
-        <v>46.97513661859262</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="W29" t="n">
-        <v>46.97513661859262</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="X29" t="n">
-        <v>46.97513661859262</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="Y29" t="n">
-        <v>46.97513661859262</v>
+        <v>46.97513661859255</v>
       </c>
     </row>
     <row r="30">
@@ -29667,76 +29667,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>46.97513661859262</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="C31" t="n">
-        <v>46.97513661859262</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="D31" t="n">
-        <v>46.97513661859262</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="E31" t="n">
-        <v>46.97513661859262</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="F31" t="n">
-        <v>46.97513661859262</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="G31" t="n">
-        <v>46.97513661859262</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="H31" t="n">
-        <v>46.97513661859262</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="I31" t="n">
-        <v>46.97513661859262</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="J31" t="n">
-        <v>46.97513661859262</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="K31" t="n">
-        <v>46.97513661859262</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="L31" t="n">
-        <v>46.97513661859262</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="M31" t="n">
-        <v>46.97513661859262</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="N31" t="n">
-        <v>46.97513661859262</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="O31" t="n">
-        <v>46.97513661859142</v>
+        <v>46.97513661859233</v>
       </c>
       <c r="P31" t="n">
-        <v>46.97513661859262</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="Q31" t="n">
-        <v>46.97513661859262</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="R31" t="n">
-        <v>46.97513661859262</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="S31" t="n">
-        <v>46.97513661859262</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="T31" t="n">
-        <v>46.97513661859262</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="U31" t="n">
-        <v>46.97513661859262</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="V31" t="n">
-        <v>46.97513661859262</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="W31" t="n">
-        <v>46.97513661859262</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="X31" t="n">
-        <v>46.97513661859262</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="Y31" t="n">
-        <v>46.97513661859262</v>
+        <v>46.97513661859255</v>
       </c>
     </row>
     <row r="32">
@@ -29746,28 +29746,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="C32" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="D32" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="E32" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="F32" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="G32" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="H32" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="I32" t="n">
-        <v>41.57692977292598</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -29797,25 +29797,25 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="T32" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="U32" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="V32" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="W32" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="X32" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="Y32" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
     </row>
     <row r="33">
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="C34" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="D34" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="E34" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="F34" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="G34" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="H34" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="I34" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="J34" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="K34" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="L34" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="M34" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="N34" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="O34" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="P34" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="Q34" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="R34" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="S34" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="T34" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="U34" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="V34" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="W34" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="X34" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="Y34" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
     </row>
     <row r="35">
@@ -29983,28 +29983,28 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>97.68472022810489</v>
+        <v>97.68472022810491</v>
       </c>
       <c r="C35" t="n">
-        <v>97.68472022810489</v>
+        <v>97.68472022810491</v>
       </c>
       <c r="D35" t="n">
-        <v>97.68472022810489</v>
+        <v>97.68472022810491</v>
       </c>
       <c r="E35" t="n">
-        <v>97.68472022810489</v>
+        <v>97.68472022810491</v>
       </c>
       <c r="F35" t="n">
-        <v>97.68472022810489</v>
+        <v>97.68472022810491</v>
       </c>
       <c r="G35" t="n">
-        <v>97.68472022810489</v>
+        <v>97.68472022810491</v>
       </c>
       <c r="H35" t="n">
-        <v>97.68472022810489</v>
+        <v>97.68472022810491</v>
       </c>
       <c r="I35" t="n">
-        <v>41.57692977292598</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -30034,25 +30034,25 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>97.68472022810489</v>
+        <v>97.68472022810491</v>
       </c>
       <c r="T35" t="n">
-        <v>97.68472022810489</v>
+        <v>97.68472022810491</v>
       </c>
       <c r="U35" t="n">
-        <v>97.68472022810489</v>
+        <v>97.68472022810491</v>
       </c>
       <c r="V35" t="n">
-        <v>97.68472022810489</v>
+        <v>97.68472022810491</v>
       </c>
       <c r="W35" t="n">
-        <v>97.68472022810489</v>
+        <v>97.68472022810491</v>
       </c>
       <c r="X35" t="n">
-        <v>97.68472022810489</v>
+        <v>97.68472022810491</v>
       </c>
       <c r="Y35" t="n">
-        <v>97.68472022810489</v>
+        <v>97.68472022810491</v>
       </c>
     </row>
     <row r="36">
@@ -30141,28 +30141,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>97.68472022810489</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>97.68472022810489</v>
+        <v>97.68472022810491</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>97.68472022810491</v>
       </c>
       <c r="E37" t="n">
-        <v>97.68472022810489</v>
+        <v>97.68472022810491</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>97.68472022810491</v>
       </c>
       <c r="G37" t="n">
-        <v>97.68472022810489</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>97.68472022810489</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>96.35242040983812</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -30189,28 +30189,28 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>88.93215267004734</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S37" t="n">
-        <v>55.477781963712</v>
+        <v>97.68472022810491</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>97.68472022810491</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>97.68472022810491</v>
       </c>
       <c r="V37" t="n">
-        <v>97.68472022810489</v>
+        <v>97.68472022810491</v>
       </c>
       <c r="W37" t="n">
-        <v>97.68472022810489</v>
+        <v>97.68472022810491</v>
       </c>
       <c r="X37" t="n">
-        <v>97.68472022810489</v>
+        <v>97.68472022810491</v>
       </c>
       <c r="Y37" t="n">
-        <v>97.68472022810489</v>
+        <v>54.14548214544465</v>
       </c>
     </row>
     <row r="38">
@@ -30220,28 +30220,28 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>97.68472022810489</v>
+        <v>97.68472022810496</v>
       </c>
       <c r="C38" t="n">
-        <v>97.68472022810489</v>
+        <v>97.68472022810496</v>
       </c>
       <c r="D38" t="n">
-        <v>97.68472022810489</v>
+        <v>97.68472022810496</v>
       </c>
       <c r="E38" t="n">
-        <v>97.68472022810489</v>
+        <v>97.68472022810496</v>
       </c>
       <c r="F38" t="n">
-        <v>97.68472022810489</v>
+        <v>97.68472022810496</v>
       </c>
       <c r="G38" t="n">
-        <v>97.68472022810489</v>
+        <v>97.68472022810496</v>
       </c>
       <c r="H38" t="n">
-        <v>97.68472022810489</v>
+        <v>97.68472022810496</v>
       </c>
       <c r="I38" t="n">
-        <v>41.57692977292598</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -30271,25 +30271,25 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>97.68472022810489</v>
+        <v>97.68472022810496</v>
       </c>
       <c r="T38" t="n">
-        <v>97.68472022810489</v>
+        <v>97.68472022810496</v>
       </c>
       <c r="U38" t="n">
-        <v>97.68472022810489</v>
+        <v>97.68472022810496</v>
       </c>
       <c r="V38" t="n">
-        <v>97.68472022810489</v>
+        <v>97.68472022810496</v>
       </c>
       <c r="W38" t="n">
-        <v>97.68472022810489</v>
+        <v>97.68472022810496</v>
       </c>
       <c r="X38" t="n">
-        <v>97.68472022810489</v>
+        <v>97.68472022810496</v>
       </c>
       <c r="Y38" t="n">
-        <v>97.68472022810489</v>
+        <v>97.68472022810496</v>
       </c>
     </row>
     <row r="39">
@@ -30378,28 +30378,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>97.68472022810489</v>
+        <v>97.68472022810496</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>97.68472022810496</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>97.68472022810496</v>
       </c>
       <c r="E40" t="n">
-        <v>97.68472022810489</v>
+        <v>97.68472022810496</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>55.47778196371232</v>
+        <v>97.68472022810496</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>97.68472022810496</v>
       </c>
       <c r="I40" t="n">
-        <v>96.35242040983812</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -30426,28 +30426,28 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>88.93215267004734</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S40" t="n">
-        <v>97.68472022810489</v>
+        <v>97.68472022810496</v>
       </c>
       <c r="T40" t="n">
-        <v>97.68472022810489</v>
+        <v>97.68472022810496</v>
       </c>
       <c r="U40" t="n">
-        <v>97.68472022810489</v>
+        <v>97.68472022810496</v>
       </c>
       <c r="V40" t="n">
-        <v>97.68472022810489</v>
+        <v>55.47778196371107</v>
       </c>
       <c r="W40" t="n">
-        <v>97.68472022810489</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>97.68472022810489</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>97.68472022810489</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -30457,28 +30457,28 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>97.68472022810489</v>
+        <v>97.68472022810499</v>
       </c>
       <c r="C41" t="n">
-        <v>97.68472022810489</v>
+        <v>97.68472022810499</v>
       </c>
       <c r="D41" t="n">
-        <v>97.68472022810489</v>
+        <v>97.68472022810499</v>
       </c>
       <c r="E41" t="n">
-        <v>97.68472022810489</v>
+        <v>97.68472022810499</v>
       </c>
       <c r="F41" t="n">
-        <v>97.68472022810489</v>
+        <v>97.68472022810499</v>
       </c>
       <c r="G41" t="n">
-        <v>97.68472022810489</v>
+        <v>97.68472022810499</v>
       </c>
       <c r="H41" t="n">
-        <v>97.68472022810489</v>
+        <v>97.68472022810499</v>
       </c>
       <c r="I41" t="n">
-        <v>41.57692977292598</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -30508,25 +30508,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>97.68472022810489</v>
+        <v>97.68472022810499</v>
       </c>
       <c r="T41" t="n">
-        <v>97.68472022810489</v>
+        <v>97.68472022810499</v>
       </c>
       <c r="U41" t="n">
-        <v>97.68472022810489</v>
+        <v>97.68472022810499</v>
       </c>
       <c r="V41" t="n">
-        <v>97.68472022810489</v>
+        <v>97.68472022810499</v>
       </c>
       <c r="W41" t="n">
-        <v>97.68472022810489</v>
+        <v>97.68472022810499</v>
       </c>
       <c r="X41" t="n">
-        <v>97.68472022810489</v>
+        <v>97.68472022810499</v>
       </c>
       <c r="Y41" t="n">
-        <v>97.68472022810489</v>
+        <v>97.68472022810499</v>
       </c>
     </row>
     <row r="42">
@@ -30615,28 +30615,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>97.68472022810489</v>
+        <v>97.68472022810499</v>
       </c>
       <c r="C43" t="n">
-        <v>97.68472022810489</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>97.68472022810489</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>97.68472022810489</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>54.14548214544554</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>55.47778196371064</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>97.68472022810499</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -30663,28 +30663,28 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>88.93215267004734</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S43" t="n">
-        <v>97.68472022810489</v>
+        <v>97.68472022810499</v>
       </c>
       <c r="T43" t="n">
-        <v>97.68472022810489</v>
+        <v>97.68472022810499</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>97.68472022810499</v>
       </c>
       <c r="V43" t="n">
-        <v>97.68472022810489</v>
+        <v>97.68472022810499</v>
       </c>
       <c r="W43" t="n">
-        <v>97.68472022810489</v>
+        <v>97.68472022810499</v>
       </c>
       <c r="X43" t="n">
-        <v>97.68472022810489</v>
+        <v>97.68472022810499</v>
       </c>
       <c r="Y43" t="n">
-        <v>97.68472022810489</v>
+        <v>97.68472022810499</v>
       </c>
     </row>
     <row r="44">
@@ -30694,28 +30694,28 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>97.68472022810489</v>
+        <v>97.68472022810499</v>
       </c>
       <c r="C44" t="n">
-        <v>97.68472022810489</v>
+        <v>97.68472022810499</v>
       </c>
       <c r="D44" t="n">
-        <v>97.68472022810489</v>
+        <v>97.68472022810499</v>
       </c>
       <c r="E44" t="n">
-        <v>97.68472022810489</v>
+        <v>97.68472022810499</v>
       </c>
       <c r="F44" t="n">
-        <v>97.68472022810489</v>
+        <v>97.68472022810499</v>
       </c>
       <c r="G44" t="n">
-        <v>97.68472022810489</v>
+        <v>97.68472022810499</v>
       </c>
       <c r="H44" t="n">
-        <v>97.68472022810489</v>
+        <v>97.68472022810499</v>
       </c>
       <c r="I44" t="n">
-        <v>41.57692977292598</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -30745,25 +30745,25 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>97.68472022810489</v>
+        <v>97.68472022810499</v>
       </c>
       <c r="T44" t="n">
-        <v>97.68472022810489</v>
+        <v>97.68472022810499</v>
       </c>
       <c r="U44" t="n">
-        <v>97.68472022810489</v>
+        <v>97.68472022810499</v>
       </c>
       <c r="V44" t="n">
-        <v>97.68472022810489</v>
+        <v>97.68472022810499</v>
       </c>
       <c r="W44" t="n">
-        <v>97.68472022810489</v>
+        <v>97.68472022810499</v>
       </c>
       <c r="X44" t="n">
-        <v>97.68472022810489</v>
+        <v>97.68472022810499</v>
       </c>
       <c r="Y44" t="n">
-        <v>97.68472022810489</v>
+        <v>97.68472022810499</v>
       </c>
     </row>
     <row r="45">
@@ -30852,28 +30852,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>97.68472022810489</v>
+        <v>97.68472022810499</v>
       </c>
       <c r="C46" t="n">
-        <v>97.68472022810489</v>
+        <v>97.68472022810499</v>
       </c>
       <c r="D46" t="n">
-        <v>97.68472022810489</v>
+        <v>97.68472022810499</v>
       </c>
       <c r="E46" t="n">
-        <v>97.68472022810489</v>
+        <v>97.68472022810499</v>
       </c>
       <c r="F46" t="n">
-        <v>97.68472022810489</v>
+        <v>97.68472022810499</v>
       </c>
       <c r="G46" t="n">
-        <v>46.72521440565434</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>97.68472022810489</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>96.35242040983812</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -30900,28 +30900,28 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>54.14548214544382</v>
       </c>
       <c r="T46" t="n">
-        <v>97.68472022810489</v>
+        <v>97.68472022810499</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>97.68472022810499</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>97.68472022810499</v>
       </c>
       <c r="W46" t="n">
-        <v>97.68472022810489</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>97.68472022810489</v>
+        <v>97.68472022810499</v>
       </c>
       <c r="Y46" t="n">
-        <v>97.68472022810489</v>
+        <v>97.68472022810499</v>
       </c>
     </row>
   </sheetData>
@@ -31513,49 +31513,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0.2805413179413174</v>
+        <v>0.280541317941335</v>
       </c>
       <c r="H8" t="n">
-        <v>2.873093772366517</v>
+        <v>2.873093772366698</v>
       </c>
       <c r="I8" t="n">
-        <v>10.81556915993265</v>
+        <v>10.81556915993333</v>
       </c>
       <c r="J8" t="n">
-        <v>23.81059368362191</v>
+        <v>23.8105936836234</v>
       </c>
       <c r="K8" t="n">
-        <v>35.68590767207788</v>
+        <v>35.68590767208012</v>
       </c>
       <c r="L8" t="n">
-        <v>44.27152403102448</v>
+        <v>44.27152403102726</v>
       </c>
       <c r="M8" t="n">
-        <v>49.26060069396338</v>
+        <v>49.26060069396647</v>
       </c>
       <c r="N8" t="n">
-        <v>50.05768871356415</v>
+        <v>50.05768871356729</v>
       </c>
       <c r="O8" t="n">
-        <v>47.26805598328518</v>
+        <v>47.26805598328814</v>
       </c>
       <c r="P8" t="n">
-        <v>40.3421921966089</v>
+        <v>40.34219219661143</v>
       </c>
       <c r="Q8" t="n">
-        <v>30.29530624783546</v>
+        <v>30.29530624783736</v>
       </c>
       <c r="R8" t="n">
-        <v>17.62255356313129</v>
+        <v>17.6225535631324</v>
       </c>
       <c r="S8" t="n">
-        <v>6.392835282587776</v>
+        <v>6.392835282588178</v>
       </c>
       <c r="T8" t="n">
-        <v>1.228069619288118</v>
+        <v>1.228069619288195</v>
       </c>
       <c r="U8" t="n">
-        <v>0.02244330543530539</v>
+        <v>0.02244330543530679</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31592,49 +31592,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.1501028381796399</v>
+        <v>0.1501028381796493</v>
       </c>
       <c r="H9" t="n">
-        <v>1.449677410840207</v>
+        <v>1.449677410840297</v>
       </c>
       <c r="I9" t="n">
-        <v>5.168014384693743</v>
+        <v>5.168014384694066</v>
       </c>
       <c r="J9" t="n">
-        <v>14.18142647906852</v>
+        <v>14.18142647906941</v>
       </c>
       <c r="K9" t="n">
-        <v>24.2383166371044</v>
+        <v>24.23831663710591</v>
       </c>
       <c r="L9" t="n">
-        <v>32.59140791264506</v>
+        <v>32.59140791264711</v>
       </c>
       <c r="M9" t="n">
-        <v>38.032635796657</v>
+        <v>38.03263579665938</v>
       </c>
       <c r="N9" t="n">
-        <v>39.03924649655468</v>
+        <v>39.03924649655713</v>
       </c>
       <c r="O9" t="n">
-        <v>35.71328360846897</v>
+        <v>35.71328360847121</v>
       </c>
       <c r="P9" t="n">
-        <v>28.66305863449632</v>
+        <v>28.66305863449812</v>
       </c>
       <c r="Q9" t="n">
-        <v>19.16049562447473</v>
+        <v>19.16049562447594</v>
       </c>
       <c r="R9" t="n">
-        <v>9.31954288276747</v>
+        <v>9.319542882768054</v>
       </c>
       <c r="S9" t="n">
-        <v>2.78809438460866</v>
+        <v>2.788094384608835</v>
       </c>
       <c r="T9" t="n">
-        <v>0.6050197731889869</v>
+        <v>0.6050197731890248</v>
       </c>
       <c r="U9" t="n">
-        <v>0.009875186722344734</v>
+        <v>0.009875186722345353</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,49 +31671,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.1258411772486771</v>
+        <v>0.125841177248685</v>
       </c>
       <c r="H10" t="n">
-        <v>1.118842466810966</v>
+        <v>1.118842466811036</v>
       </c>
       <c r="I10" t="n">
-        <v>3.784387403078399</v>
+        <v>3.784387403078637</v>
       </c>
       <c r="J10" t="n">
-        <v>8.896971231481469</v>
+        <v>8.896971231482027</v>
       </c>
       <c r="K10" t="n">
-        <v>14.62045677489175</v>
+        <v>14.62045677489267</v>
       </c>
       <c r="L10" t="n">
-        <v>18.7091510247715</v>
+        <v>18.70915102477268</v>
       </c>
       <c r="M10" t="n">
-        <v>19.72617653908126</v>
+        <v>19.7261765390825</v>
       </c>
       <c r="N10" t="n">
-        <v>19.25713215115439</v>
+        <v>19.2571321511556</v>
       </c>
       <c r="O10" t="n">
-        <v>17.78707839874938</v>
+        <v>17.7870783987505</v>
       </c>
       <c r="P10" t="n">
-        <v>15.21991838287636</v>
+        <v>15.21991838287731</v>
       </c>
       <c r="Q10" t="n">
-        <v>10.53748257852332</v>
+        <v>10.53748257852398</v>
       </c>
       <c r="R10" t="n">
-        <v>5.658276933381424</v>
+        <v>5.65827693338178</v>
       </c>
       <c r="S10" t="n">
-        <v>2.193068516233763</v>
+        <v>2.1930685162339</v>
       </c>
       <c r="T10" t="n">
-        <v>0.5376850300625292</v>
+        <v>0.537685030062563</v>
       </c>
       <c r="U10" t="n">
-        <v>0.006864064213564213</v>
+        <v>0.006864064213564643</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31750,49 +31750,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>4.381011861681599</v>
+        <v>4.381011861681596</v>
       </c>
       <c r="H11" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844665</v>
       </c>
       <c r="I11" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J11" t="n">
-        <v>371.832905495399</v>
+        <v>371.8329054953987</v>
       </c>
       <c r="K11" t="n">
-        <v>557.2811376003812</v>
+        <v>557.2811376003808</v>
       </c>
       <c r="L11" t="n">
-        <v>691.3565293623195</v>
+        <v>691.3565293623191</v>
       </c>
       <c r="M11" t="n">
-        <v>769.2673490574996</v>
+        <v>769.2673490574991</v>
       </c>
       <c r="N11" t="n">
-        <v>781.7148990095025</v>
+        <v>781.714899009502</v>
       </c>
       <c r="O11" t="n">
-        <v>738.1512123099061</v>
+        <v>738.1512123099056</v>
       </c>
       <c r="P11" t="n">
-        <v>629.9949819746415</v>
+        <v>629.9949819746411</v>
       </c>
       <c r="Q11" t="n">
-        <v>473.0999946781691</v>
+        <v>473.0999946781688</v>
       </c>
       <c r="R11" t="n">
-        <v>275.198736356357</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S11" t="n">
-        <v>99.83230779806954</v>
+        <v>99.83230779806946</v>
       </c>
       <c r="T11" t="n">
-        <v>19.17787942451121</v>
+        <v>19.1778794245112</v>
       </c>
       <c r="U11" t="n">
-        <v>0.3504809489345279</v>
+        <v>0.3504809489345276</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31829,46 +31829,46 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.344047997502567</v>
+        <v>2.344047997502565</v>
       </c>
       <c r="H12" t="n">
-        <v>22.63856881798532</v>
+        <v>22.63856881798531</v>
       </c>
       <c r="I12" t="n">
-        <v>80.7051613175226</v>
+        <v>80.70516131752254</v>
       </c>
       <c r="J12" t="n">
-        <v>221.4611312026439</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K12" t="n">
-        <v>378.5123470353158</v>
+        <v>378.5123470353155</v>
       </c>
       <c r="L12" t="n">
-        <v>508.9565619138797</v>
+        <v>508.9565619138794</v>
       </c>
       <c r="M12" t="n">
-        <v>593.9283018233476</v>
+        <v>593.9283018233473</v>
       </c>
       <c r="N12" t="n">
-        <v>609.6478166837926</v>
+        <v>609.6478166837921</v>
       </c>
       <c r="O12" t="n">
-        <v>557.7086478970251</v>
+        <v>557.7086478970248</v>
       </c>
       <c r="P12" t="n">
-        <v>447.6103584002928</v>
+        <v>447.6103584002925</v>
       </c>
       <c r="Q12" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987485</v>
       </c>
       <c r="R12" t="n">
-        <v>145.5365940905542</v>
+        <v>145.5365940905541</v>
       </c>
       <c r="S12" t="n">
-        <v>43.53966346238317</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T12" t="n">
-        <v>9.448158375898499</v>
+        <v>9.448158375898494</v>
       </c>
       <c r="U12" t="n">
         <v>0.1542136840462215</v>
@@ -31908,49 +31908,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H13" t="n">
-        <v>17.4721575931188</v>
+        <v>17.47215759311879</v>
       </c>
       <c r="I13" t="n">
-        <v>59.0980545174202</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J13" t="n">
-        <v>138.937596729739</v>
+        <v>138.9375967297389</v>
       </c>
       <c r="K13" t="n">
-        <v>228.3171513702025</v>
+        <v>228.3171513702023</v>
       </c>
       <c r="L13" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M13" t="n">
-        <v>308.0495024316433</v>
+        <v>308.0495024316431</v>
       </c>
       <c r="N13" t="n">
-        <v>300.7247737883116</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O13" t="n">
-        <v>277.7680023086002</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P13" t="n">
-        <v>237.678511880217</v>
+        <v>237.6785118802168</v>
       </c>
       <c r="Q13" t="n">
-        <v>164.5562817895881</v>
+        <v>164.556281789588</v>
       </c>
       <c r="R13" t="n">
-        <v>88.36123870712217</v>
+        <v>88.36123870712211</v>
       </c>
       <c r="S13" t="n">
-        <v>34.24757270553037</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T13" t="n">
-        <v>8.396640152112298</v>
+        <v>8.396640152112292</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,49 +31987,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>4.381011861681599</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H14" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I14" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J14" t="n">
-        <v>371.832905495399</v>
+        <v>371.8329054953988</v>
       </c>
       <c r="K14" t="n">
-        <v>557.2811376003812</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L14" t="n">
-        <v>691.3565293623195</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M14" t="n">
-        <v>769.2673490574996</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N14" t="n">
-        <v>781.7148990095025</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O14" t="n">
-        <v>738.1512123099061</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P14" t="n">
-        <v>629.9949819746415</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q14" t="n">
-        <v>473.0999946781691</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R14" t="n">
-        <v>275.198736356357</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S14" t="n">
-        <v>99.83230779806954</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T14" t="n">
-        <v>19.17787942451121</v>
+        <v>19.1778794245112</v>
       </c>
       <c r="U14" t="n">
-        <v>0.3504809489345279</v>
+        <v>0.3504809489345277</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32066,46 +32066,46 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.344047997502567</v>
+        <v>2.344047997502566</v>
       </c>
       <c r="H15" t="n">
-        <v>22.63856881798532</v>
+        <v>22.63856881798531</v>
       </c>
       <c r="I15" t="n">
-        <v>80.7051613175226</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J15" t="n">
-        <v>221.4611312026439</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K15" t="n">
-        <v>378.5123470353158</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L15" t="n">
-        <v>508.9565619138797</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M15" t="n">
-        <v>593.9283018233476</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N15" t="n">
-        <v>609.6478166837926</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O15" t="n">
-        <v>557.7086478970251</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P15" t="n">
-        <v>447.6103584002928</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q15" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R15" t="n">
-        <v>145.5365940905542</v>
+        <v>145.5365940905541</v>
       </c>
       <c r="S15" t="n">
-        <v>43.53966346238317</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T15" t="n">
-        <v>9.448158375898499</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U15" t="n">
         <v>0.1542136840462215</v>
@@ -32145,49 +32145,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H16" t="n">
-        <v>17.4721575931188</v>
+        <v>17.47215759311879</v>
       </c>
       <c r="I16" t="n">
-        <v>59.0980545174202</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J16" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K16" t="n">
-        <v>228.3171513702025</v>
+        <v>228.3171513702024</v>
       </c>
       <c r="L16" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M16" t="n">
-        <v>308.0495024316433</v>
+        <v>308.0495024316432</v>
       </c>
       <c r="N16" t="n">
-        <v>300.7247737883116</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O16" t="n">
-        <v>277.7680023086002</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P16" t="n">
-        <v>237.678511880217</v>
+        <v>237.6785118802169</v>
       </c>
       <c r="Q16" t="n">
-        <v>164.5562817895881</v>
+        <v>164.556281789588</v>
       </c>
       <c r="R16" t="n">
-        <v>88.36123870712217</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S16" t="n">
-        <v>34.24757270553037</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T16" t="n">
-        <v>8.396640152112298</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32698,43 +32698,43 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H23" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I23" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J23" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K23" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L23" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M23" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N23" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O23" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P23" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q23" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R23" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S23" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T23" t="n">
         <v>19.1778794245112</v>
@@ -32783,40 +32783,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I24" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J24" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K24" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L24" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M24" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N24" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O24" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P24" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q24" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R24" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S24" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T24" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U24" t="n">
         <v>0.1542136840462215</v>
@@ -32856,13 +32856,13 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H25" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I25" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J25" t="n">
         <v>138.937596729739</v>
@@ -32871,16 +32871,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L25" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M25" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N25" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O25" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P25" t="n">
         <v>237.6785118802169</v>
@@ -32889,16 +32889,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R25" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S25" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T25" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32935,43 +32935,43 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H26" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I26" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J26" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K26" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L26" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M26" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N26" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O26" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P26" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q26" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R26" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S26" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T26" t="n">
         <v>19.1778794245112</v>
@@ -33020,40 +33020,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I27" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J27" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K27" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L27" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M27" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N27" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O27" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P27" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q27" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987485</v>
       </c>
       <c r="R27" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S27" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T27" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U27" t="n">
         <v>0.1542136840462215</v>
@@ -33093,13 +33093,13 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H28" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I28" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J28" t="n">
         <v>138.937596729739</v>
@@ -33108,16 +33108,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L28" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M28" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N28" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O28" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P28" t="n">
         <v>237.6785118802169</v>
@@ -33126,16 +33126,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R28" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S28" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T28" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33172,43 +33172,43 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H29" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I29" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J29" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K29" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L29" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M29" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N29" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O29" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P29" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q29" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R29" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S29" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T29" t="n">
         <v>19.1778794245112</v>
@@ -33257,40 +33257,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I30" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J30" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K30" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L30" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M30" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N30" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O30" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P30" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q30" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R30" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S30" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T30" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U30" t="n">
         <v>0.1542136840462215</v>
@@ -33330,13 +33330,13 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H31" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I31" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J31" t="n">
         <v>138.937596729739</v>
@@ -33345,16 +33345,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L31" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M31" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N31" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O31" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P31" t="n">
         <v>237.6785118802169</v>
@@ -33363,16 +33363,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R31" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S31" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T31" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33409,43 +33409,43 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H32" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I32" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J32" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K32" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L32" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M32" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N32" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O32" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P32" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q32" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R32" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S32" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T32" t="n">
         <v>19.1778794245112</v>
@@ -33494,40 +33494,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I33" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J33" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K33" t="n">
-        <v>378.5123470353163</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L33" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M33" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N33" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O33" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P33" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q33" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987485</v>
       </c>
       <c r="R33" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S33" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T33" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U33" t="n">
         <v>0.1542136840462215</v>
@@ -33567,13 +33567,13 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H34" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I34" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J34" t="n">
         <v>138.937596729739</v>
@@ -33582,16 +33582,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L34" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M34" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N34" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O34" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P34" t="n">
         <v>237.6785118802169</v>
@@ -33600,16 +33600,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R34" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S34" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T34" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33646,43 +33646,43 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H35" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I35" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J35" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K35" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L35" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M35" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N35" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O35" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P35" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q35" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R35" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S35" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T35" t="n">
         <v>19.1778794245112</v>
@@ -33731,40 +33731,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I36" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J36" t="n">
-        <v>221.4611312026441</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K36" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L36" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M36" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N36" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O36" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P36" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q36" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R36" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S36" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T36" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U36" t="n">
         <v>0.1542136840462215</v>
@@ -33804,13 +33804,13 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H37" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I37" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J37" t="n">
         <v>138.937596729739</v>
@@ -33819,16 +33819,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L37" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M37" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N37" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O37" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P37" t="n">
         <v>237.6785118802169</v>
@@ -33837,16 +33837,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R37" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S37" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T37" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33883,43 +33883,43 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H38" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I38" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J38" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K38" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L38" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M38" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N38" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O38" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P38" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q38" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R38" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S38" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T38" t="n">
         <v>19.1778794245112</v>
@@ -33968,40 +33968,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I39" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J39" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K39" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L39" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M39" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N39" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O39" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P39" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q39" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R39" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S39" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T39" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U39" t="n">
         <v>0.1542136840462215</v>
@@ -34041,13 +34041,13 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H40" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I40" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J40" t="n">
         <v>138.937596729739</v>
@@ -34056,16 +34056,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L40" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M40" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N40" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O40" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P40" t="n">
         <v>237.6785118802169</v>
@@ -34074,16 +34074,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R40" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S40" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T40" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34120,43 +34120,43 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H41" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I41" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J41" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K41" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L41" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M41" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N41" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O41" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P41" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q41" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R41" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S41" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T41" t="n">
         <v>19.1778794245112</v>
@@ -34205,40 +34205,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I42" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J42" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K42" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L42" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M42" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N42" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O42" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P42" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q42" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R42" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S42" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T42" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U42" t="n">
         <v>0.1542136840462215</v>
@@ -34278,13 +34278,13 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H43" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I43" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J43" t="n">
         <v>138.937596729739</v>
@@ -34293,16 +34293,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L43" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M43" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N43" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O43" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P43" t="n">
         <v>237.6785118802169</v>
@@ -34311,16 +34311,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R43" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S43" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T43" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34357,43 +34357,43 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H44" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I44" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J44" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K44" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L44" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M44" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N44" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O44" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P44" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q44" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R44" t="n">
-        <v>275.1987363563588</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S44" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T44" t="n">
         <v>19.1778794245112</v>
@@ -34442,40 +34442,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I45" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J45" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K45" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L45" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M45" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N45" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O45" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P45" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q45" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R45" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S45" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T45" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U45" t="n">
         <v>0.1542136840462215</v>
@@ -34515,13 +34515,13 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H46" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I46" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J46" t="n">
         <v>138.937596729739</v>
@@ -34530,16 +34530,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L46" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M46" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N46" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O46" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P46" t="n">
         <v>237.6785118802169</v>
@@ -34548,16 +34548,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R46" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S46" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T46" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U46" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -35407,31 +35407,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>190.7870009687127</v>
+        <v>190.7870009687124</v>
       </c>
       <c r="K11" t="n">
-        <v>337.1912865554006</v>
+        <v>337.1912865554003</v>
       </c>
       <c r="L11" t="n">
-        <v>455.5901143923323</v>
+        <v>455.5901143923318</v>
       </c>
       <c r="M11" t="n">
-        <v>538.9211158302269</v>
+        <v>538.9211158302264</v>
       </c>
       <c r="N11" t="n">
-        <v>552.3018354129115</v>
+        <v>552.301835412911</v>
       </c>
       <c r="O11" t="n">
-        <v>508.0530008882193</v>
+        <v>508.0530008882189</v>
       </c>
       <c r="P11" t="n">
-        <v>398.761986219372</v>
+        <v>398.7619862193715</v>
       </c>
       <c r="Q11" t="n">
-        <v>250.7943048037196</v>
+        <v>250.7943048037193</v>
       </c>
       <c r="R11" t="n">
-        <v>59.61319854222484</v>
+        <v>59.61319854222467</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35486,28 +35486,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>94.62350453597716</v>
+        <v>94.62350453597702</v>
       </c>
       <c r="K12" t="n">
-        <v>240.6709080609568</v>
+        <v>240.6709080609565</v>
       </c>
       <c r="L12" t="n">
-        <v>370.4021821340056</v>
+        <v>370.4021821340052</v>
       </c>
       <c r="M12" t="n">
-        <v>451.7942679013293</v>
+        <v>451.794267901329</v>
       </c>
       <c r="N12" t="n">
-        <v>478.3061046004593</v>
+        <v>478.3061046004589</v>
       </c>
       <c r="O12" t="n">
-        <v>415.1124034525807</v>
+        <v>415.1124034525803</v>
       </c>
       <c r="P12" t="n">
-        <v>313.6359509859626</v>
+        <v>313.6359509859623</v>
       </c>
       <c r="Q12" t="n">
-        <v>159.2338966127272</v>
+        <v>159.233896612727</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35565,28 +35565,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>72.49856320019265</v>
+        <v>72.49856320019263</v>
       </c>
       <c r="K13" t="n">
         <v>232.967806131446</v>
       </c>
       <c r="L13" t="n">
-        <v>346.6775187573246</v>
+        <v>346.6775187573245</v>
       </c>
       <c r="M13" t="n">
-        <v>374.5535259806103</v>
+        <v>374.5535259806102</v>
       </c>
       <c r="N13" t="n">
-        <v>371.7770927546666</v>
+        <v>371.7770927546665</v>
       </c>
       <c r="O13" t="n">
-        <v>329.2732768097662</v>
+        <v>329.2732768097661</v>
       </c>
       <c r="P13" t="n">
-        <v>261.8772177322369</v>
+        <v>261.8772177322368</v>
       </c>
       <c r="Q13" t="n">
-        <v>105.3143851250201</v>
+        <v>105.31438512502</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35644,31 +35644,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>190.7870009687127</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K14" t="n">
-        <v>337.1912865554006</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L14" t="n">
-        <v>455.5901143923323</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M14" t="n">
-        <v>538.9211158302269</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N14" t="n">
-        <v>552.3018354129115</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O14" t="n">
-        <v>508.0530008882193</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P14" t="n">
-        <v>398.761986219372</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q14" t="n">
-        <v>250.7943048037196</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R14" t="n">
-        <v>59.61319854222484</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35723,28 +35723,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>94.62350453597716</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K15" t="n">
-        <v>240.6709080609568</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L15" t="n">
-        <v>370.4021821340056</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M15" t="n">
-        <v>451.7942679013293</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N15" t="n">
-        <v>478.3061046004593</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O15" t="n">
-        <v>415.1124034525807</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P15" t="n">
-        <v>313.6359509859626</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q15" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35808,19 +35808,19 @@
         <v>232.967806131446</v>
       </c>
       <c r="L16" t="n">
-        <v>346.6775187573246</v>
+        <v>346.6775187573245</v>
       </c>
       <c r="M16" t="n">
-        <v>374.5535259806103</v>
+        <v>374.5535259806102</v>
       </c>
       <c r="N16" t="n">
-        <v>371.7770927546666</v>
+        <v>371.7770927546665</v>
       </c>
       <c r="O16" t="n">
         <v>329.2732768097662</v>
       </c>
       <c r="P16" t="n">
-        <v>261.8772177322369</v>
+        <v>261.8772177322368</v>
       </c>
       <c r="Q16" t="n">
         <v>105.3143851250201</v>
@@ -36355,31 +36355,31 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>190.7870009687125</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K23" t="n">
-        <v>337.1912865554004</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L23" t="n">
-        <v>455.5901143923319</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M23" t="n">
-        <v>538.9211158302265</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N23" t="n">
-        <v>552.3018354129113</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O23" t="n">
-        <v>847.8674262666532</v>
+        <v>526.0687180951709</v>
       </c>
       <c r="P23" t="n">
-        <v>398.7619862193716</v>
+        <v>720.5606943908545</v>
       </c>
       <c r="Q23" t="n">
-        <v>250.7943048037194</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R23" t="n">
-        <v>59.61319854222472</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36434,28 +36434,28 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K24" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L24" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M24" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N24" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O24" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P24" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q24" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36513,10 +36513,10 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>45.5784166130662</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K25" t="n">
-        <v>206.0476595443195</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L25" t="n">
         <v>319.7573721701981</v>
@@ -36528,13 +36528,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O25" t="n">
-        <v>302.3531302226397</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P25" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q25" t="n">
-        <v>78.39423853789363</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36592,31 +36592,31 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>190.7870009687125</v>
+        <v>253.3071866753515</v>
       </c>
       <c r="K26" t="n">
-        <v>337.1912865554004</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L26" t="n">
-        <v>455.5901143923319</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M26" t="n">
-        <v>825.9229012776185</v>
+        <v>988.4346493230593</v>
       </c>
       <c r="N26" t="n">
-        <v>989.6487598248955</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O26" t="n">
-        <v>508.053000888219</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P26" t="n">
-        <v>398.7619862193716</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q26" t="n">
-        <v>250.7943048037194</v>
+        <v>463.1092954636242</v>
       </c>
       <c r="R26" t="n">
-        <v>59.61319854222472</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36671,28 +36671,28 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K27" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L27" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M27" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N27" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O27" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P27" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q27" t="n">
-        <v>159.2338966127271</v>
+        <v>159.233896612727</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36750,7 +36750,7 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>92.55355323165881</v>
+        <v>92.55355323165878</v>
       </c>
       <c r="K28" t="n">
         <v>253.0227961629121</v>
@@ -36765,13 +36765,13 @@
         <v>391.8320827861327</v>
       </c>
       <c r="O28" t="n">
-        <v>349.3282668412323</v>
+        <v>349.3282668412321</v>
       </c>
       <c r="P28" t="n">
         <v>281.932207763703</v>
       </c>
       <c r="Q28" t="n">
-        <v>125.3693751564848</v>
+        <v>125.3693751564862</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36829,31 +36829,31 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>190.7870009687125</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K29" t="n">
-        <v>527.4262975833889</v>
+        <v>358.9411069805475</v>
       </c>
       <c r="L29" t="n">
-        <v>455.5901143923319</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M29" t="n">
-        <v>538.9211158302265</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N29" t="n">
-        <v>552.3018354129113</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O29" t="n">
-        <v>508.053000888219</v>
+        <v>888.8531821509645</v>
       </c>
       <c r="P29" t="n">
-        <v>720.5606943908542</v>
+        <v>720.5606943908545</v>
       </c>
       <c r="Q29" t="n">
-        <v>463.1092954636241</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R29" t="n">
-        <v>59.61319854222472</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36908,28 +36908,28 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K30" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L30" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M30" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N30" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O30" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P30" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q30" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -36987,7 +36987,7 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>92.55355323165881</v>
+        <v>92.55355323165878</v>
       </c>
       <c r="K31" t="n">
         <v>253.0227961629121</v>
@@ -37002,13 +37002,13 @@
         <v>391.8320827861327</v>
       </c>
       <c r="O31" t="n">
-        <v>349.3282668412311</v>
+        <v>349.3282668412321</v>
       </c>
       <c r="P31" t="n">
         <v>281.932207763703</v>
       </c>
       <c r="Q31" t="n">
-        <v>125.3693751564863</v>
+        <v>125.3693751564862</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37066,31 +37066,31 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>359.8836161407863</v>
+        <v>322.0205389054375</v>
       </c>
       <c r="K32" t="n">
-        <v>661.3366991265651</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L32" t="n">
-        <v>455.5901143923319</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M32" t="n">
-        <v>538.9211158302265</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N32" t="n">
-        <v>552.3018354129113</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O32" t="n">
-        <v>508.053000888219</v>
+        <v>888.8531821509645</v>
       </c>
       <c r="P32" t="n">
-        <v>629.8686683355093</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q32" t="n">
-        <v>250.7943048037194</v>
+        <v>463.1092954636242</v>
       </c>
       <c r="R32" t="n">
-        <v>59.61319854222472</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37145,28 +37145,28 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K33" t="n">
-        <v>240.6709080609573</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L33" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M33" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N33" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O33" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P33" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q33" t="n">
-        <v>159.2338966127271</v>
+        <v>159.233896612727</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37230,10 +37230,10 @@
         <v>253.0227961629121</v>
       </c>
       <c r="L34" t="n">
-        <v>366.7325087887906</v>
+        <v>366.7325087887907</v>
       </c>
       <c r="M34" t="n">
-        <v>394.6085160120763</v>
+        <v>394.6085160120764</v>
       </c>
       <c r="N34" t="n">
         <v>391.8320827861326</v>
@@ -37242,7 +37242,7 @@
         <v>349.3282668412323</v>
       </c>
       <c r="P34" t="n">
-        <v>281.9322077637029</v>
+        <v>281.932207763703</v>
       </c>
       <c r="Q34" t="n">
         <v>125.3693751564862</v>
@@ -37303,31 +37303,31 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>190.7870009687125</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K35" t="n">
-        <v>337.1912865554004</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L35" t="n">
-        <v>455.5901143923319</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M35" t="n">
-        <v>538.9211158302265</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N35" t="n">
-        <v>552.3018354129113</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O35" t="n">
-        <v>508.053000888219</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P35" t="n">
-        <v>398.7619862193716</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q35" t="n">
-        <v>250.7943048037194</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R35" t="n">
-        <v>59.61319854222617</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37382,28 +37382,28 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>94.62350453597742</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K36" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L36" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M36" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N36" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O36" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P36" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q36" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37461,10 +37461,10 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>45.5784166130662</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K37" t="n">
-        <v>206.0476595443195</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L37" t="n">
         <v>319.7573721701981</v>
@@ -37476,13 +37476,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O37" t="n">
-        <v>302.3531302226397</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P37" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q37" t="n">
-        <v>78.39423853789363</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37540,31 +37540,31 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>190.7870009687125</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K38" t="n">
-        <v>337.1912865554004</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L38" t="n">
-        <v>455.5901143923319</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M38" t="n">
-        <v>538.9211158302265</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N38" t="n">
-        <v>552.3018354129113</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O38" t="n">
-        <v>508.053000888219</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P38" t="n">
-        <v>398.7619862193716</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q38" t="n">
-        <v>250.7943048037194</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R38" t="n">
-        <v>59.61319854222472</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37619,28 +37619,28 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K39" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L39" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M39" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N39" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O39" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P39" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q39" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37698,10 +37698,10 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>45.5784166130662</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K40" t="n">
-        <v>206.0476595443195</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L40" t="n">
         <v>319.7573721701981</v>
@@ -37713,13 +37713,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O40" t="n">
-        <v>302.3531302226397</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P40" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q40" t="n">
-        <v>78.39423853789363</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37777,31 +37777,31 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>190.7870009687125</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K41" t="n">
-        <v>337.1912865554004</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L41" t="n">
-        <v>455.5901143923319</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M41" t="n">
-        <v>538.9211158302265</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N41" t="n">
-        <v>552.3018354129113</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O41" t="n">
-        <v>508.053000888219</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P41" t="n">
-        <v>398.7619862193716</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q41" t="n">
-        <v>250.7943048037194</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R41" t="n">
-        <v>59.61319854222709</v>
+        <v>59.61319854222342</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37856,28 +37856,28 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K42" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L42" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M42" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N42" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O42" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P42" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q42" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -37935,10 +37935,10 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>45.5784166130662</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K43" t="n">
-        <v>206.0476595443195</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L43" t="n">
         <v>319.7573721701981</v>
@@ -37950,13 +37950,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O43" t="n">
-        <v>302.3531302226397</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P43" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q43" t="n">
-        <v>78.39423853789363</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38014,31 +38014,31 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>190.7870009687125</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K44" t="n">
-        <v>337.1912865554004</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L44" t="n">
-        <v>455.5901143923319</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M44" t="n">
-        <v>538.9211158302265</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N44" t="n">
-        <v>552.3018354129113</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O44" t="n">
-        <v>508.053000888219</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P44" t="n">
-        <v>398.7619862193716</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q44" t="n">
-        <v>250.7943048037194</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R44" t="n">
-        <v>59.61319854222663</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38093,28 +38093,28 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K45" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L45" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M45" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N45" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O45" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P45" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q45" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -38172,10 +38172,10 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>45.5784166130662</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K46" t="n">
-        <v>206.0476595443195</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L46" t="n">
         <v>319.7573721701981</v>
@@ -38187,13 +38187,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O46" t="n">
-        <v>302.3531302226397</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P46" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q46" t="n">
-        <v>78.39423853789363</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
